--- a/tables/public_feed_episodes.xlsx
+++ b/tables/public_feed_episodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ss4316/Documents/Research/IRCB/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A69DE-4625-3043-BDCC-8AFBA2470F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDAAF90-14CE-ED4A-A515-FED808F4A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8495,9 +8495,6 @@
   </si>
   <si>
     <t>Wed, 30 Jan 2019 11:01:19 +0000</t>
-  </si>
-  <si>
-    <t>Paul Jaissle, Kait Lamphere, Harry Potter, Mike Rapin, Tia Vasiliou, Nick White</t>
   </si>
   <si>
     <t>comic books, zines, annual, hangout, comics</t>
@@ -12887,6 +12884,9 @@
   </si>
   <si>
     <t>622</t>
+  </si>
+  <si>
+    <t>Paul Jaissle, Kait Lamphere, Mike Rapin, Tia Vasiliou, Nick White</t>
   </si>
 </sst>
 </file>
@@ -13252,8 +13252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L426" sqref="L426"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="F379" sqref="F379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29064,13 +29064,13 @@
         <v>2817</v>
       </c>
       <c r="F379" t="s">
+        <v>3743</v>
+      </c>
+      <c r="G379" t="s">
         <v>2818</v>
       </c>
-      <c r="G379" t="s">
+      <c r="H379" t="s">
         <v>2819</v>
-      </c>
-      <c r="H379" t="s">
-        <v>2820</v>
       </c>
       <c r="I379" t="s">
         <v>19</v>
@@ -29082,10 +29082,10 @@
         <v>188</v>
       </c>
       <c r="M379" t="s">
+        <v>2820</v>
+      </c>
+      <c r="N379" t="s">
         <v>2821</v>
-      </c>
-      <c r="N379" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
@@ -29093,25 +29093,25 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C380" t="s">
         <v>2823</v>
       </c>
-      <c r="C380" t="s">
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
         <v>2824</v>
-      </c>
-      <c r="D380">
-        <v>1</v>
-      </c>
-      <c r="E380" t="s">
-        <v>2825</v>
       </c>
       <c r="F380" t="s">
         <v>211</v>
       </c>
       <c r="G380" t="s">
+        <v>2825</v>
+      </c>
+      <c r="H380" t="s">
         <v>2826</v>
-      </c>
-      <c r="H380" t="s">
-        <v>2827</v>
       </c>
       <c r="I380" t="s">
         <v>19</v>
@@ -29123,10 +29123,10 @@
         <v>187</v>
       </c>
       <c r="M380" t="s">
+        <v>2827</v>
+      </c>
+      <c r="N380" t="s">
         <v>2828</v>
-      </c>
-      <c r="N380" t="s">
-        <v>2829</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
@@ -29134,25 +29134,25 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C381" t="s">
         <v>2830</v>
       </c>
-      <c r="C381" t="s">
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
         <v>2831</v>
-      </c>
-      <c r="D381">
-        <v>1</v>
-      </c>
-      <c r="E381" t="s">
-        <v>2832</v>
       </c>
       <c r="F381" t="s">
         <v>392</v>
       </c>
       <c r="G381" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H381" t="s">
         <v>2833</v>
-      </c>
-      <c r="H381" t="s">
-        <v>2834</v>
       </c>
       <c r="I381" t="s">
         <v>19</v>
@@ -29164,10 +29164,10 @@
         <v>186</v>
       </c>
       <c r="M381" t="s">
+        <v>2834</v>
+      </c>
+      <c r="N381" t="s">
         <v>2835</v>
-      </c>
-      <c r="N381" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
@@ -29175,25 +29175,25 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C382" t="s">
         <v>2837</v>
       </c>
-      <c r="C382" t="s">
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
         <v>2838</v>
-      </c>
-      <c r="D382">
-        <v>1</v>
-      </c>
-      <c r="E382" t="s">
-        <v>2839</v>
       </c>
       <c r="F382" t="s">
         <v>259</v>
       </c>
       <c r="G382" t="s">
+        <v>2839</v>
+      </c>
+      <c r="H382" t="s">
         <v>2840</v>
-      </c>
-      <c r="H382" t="s">
-        <v>2841</v>
       </c>
       <c r="I382" t="s">
         <v>19</v>
@@ -29205,10 +29205,10 @@
         <v>185</v>
       </c>
       <c r="M382" t="s">
+        <v>2841</v>
+      </c>
+      <c r="N382" t="s">
         <v>2842</v>
-      </c>
-      <c r="N382" t="s">
-        <v>2843</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
@@ -29216,25 +29216,25 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C383" t="s">
         <v>2844</v>
-      </c>
-      <c r="C383" t="s">
-        <v>2845</v>
       </c>
       <c r="D383">
         <v>0</v>
       </c>
       <c r="E383" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F383" t="s">
         <v>2846</v>
       </c>
-      <c r="F383" t="s">
+      <c r="G383" t="s">
         <v>2847</v>
       </c>
-      <c r="G383" t="s">
+      <c r="H383" t="s">
         <v>2848</v>
-      </c>
-      <c r="H383" t="s">
-        <v>2849</v>
       </c>
       <c r="I383" t="s">
         <v>19</v>
@@ -29246,10 +29246,10 @@
         <v>23</v>
       </c>
       <c r="M383" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N383" t="s">
         <v>2850</v>
-      </c>
-      <c r="N383" t="s">
-        <v>2851</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
@@ -29257,25 +29257,25 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C384" t="s">
         <v>2852</v>
-      </c>
-      <c r="C384" t="s">
-        <v>2853</v>
       </c>
       <c r="D384">
         <v>0</v>
       </c>
       <c r="E384" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="F384" t="s">
         <v>540</v>
       </c>
       <c r="G384" t="s">
+        <v>2854</v>
+      </c>
+      <c r="H384" t="s">
         <v>2855</v>
-      </c>
-      <c r="H384" t="s">
-        <v>2856</v>
       </c>
       <c r="I384" t="s">
         <v>19</v>
@@ -29287,10 +29287,10 @@
         <v>22</v>
       </c>
       <c r="M384" t="s">
+        <v>2856</v>
+      </c>
+      <c r="N384" t="s">
         <v>2857</v>
-      </c>
-      <c r="N384" t="s">
-        <v>2858</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
@@ -29298,25 +29298,25 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C385" t="s">
         <v>2859</v>
       </c>
-      <c r="C385" t="s">
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
         <v>2860</v>
-      </c>
-      <c r="D385">
-        <v>1</v>
-      </c>
-      <c r="E385" t="s">
-        <v>2861</v>
       </c>
       <c r="F385" t="s">
         <v>752</v>
       </c>
       <c r="G385" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H385" t="s">
         <v>2862</v>
-      </c>
-      <c r="H385" t="s">
-        <v>2863</v>
       </c>
       <c r="I385" t="s">
         <v>19</v>
@@ -29328,10 +29328,10 @@
         <v>184</v>
       </c>
       <c r="M385" t="s">
+        <v>2863</v>
+      </c>
+      <c r="N385" t="s">
         <v>2864</v>
-      </c>
-      <c r="N385" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
@@ -29339,25 +29339,25 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C386" t="s">
         <v>2866</v>
       </c>
-      <c r="C386" t="s">
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
         <v>2867</v>
-      </c>
-      <c r="D386">
-        <v>1</v>
-      </c>
-      <c r="E386" t="s">
-        <v>2868</v>
       </c>
       <c r="F386" t="s">
         <v>1251</v>
       </c>
       <c r="G386" t="s">
+        <v>2868</v>
+      </c>
+      <c r="H386" t="s">
         <v>2869</v>
-      </c>
-      <c r="H386" t="s">
-        <v>2870</v>
       </c>
       <c r="I386" t="s">
         <v>19</v>
@@ -29369,10 +29369,10 @@
         <v>183</v>
       </c>
       <c r="M386" t="s">
+        <v>2870</v>
+      </c>
+      <c r="N386" t="s">
         <v>2871</v>
-      </c>
-      <c r="N386" t="s">
-        <v>2872</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
@@ -29380,25 +29380,25 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C387" t="s">
         <v>2873</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387" t="s">
         <v>2874</v>
-      </c>
-      <c r="D387">
-        <v>1</v>
-      </c>
-      <c r="E387" t="s">
-        <v>2875</v>
       </c>
       <c r="F387" t="s">
         <v>244</v>
       </c>
       <c r="G387" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H387" t="s">
         <v>2876</v>
-      </c>
-      <c r="H387" t="s">
-        <v>2877</v>
       </c>
       <c r="I387" t="s">
         <v>19</v>
@@ -29410,10 +29410,10 @@
         <v>182</v>
       </c>
       <c r="M387" t="s">
+        <v>2877</v>
+      </c>
+      <c r="N387" t="s">
         <v>2878</v>
-      </c>
-      <c r="N387" t="s">
-        <v>2879</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
@@ -29421,40 +29421,40 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C388" t="s">
         <v>2880</v>
-      </c>
-      <c r="C388" t="s">
-        <v>2881</v>
       </c>
       <c r="D388">
         <v>0</v>
       </c>
       <c r="E388" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F388" t="s">
         <v>2882</v>
       </c>
-      <c r="F388" t="s">
+      <c r="G388" t="s">
         <v>2883</v>
       </c>
-      <c r="G388" t="s">
+      <c r="H388" t="s">
         <v>2884</v>
       </c>
-      <c r="H388" t="s">
+      <c r="I388" t="s">
+        <v>19</v>
+      </c>
+      <c r="K388" t="s">
+        <v>21</v>
+      </c>
+      <c r="L388">
+        <v>21</v>
+      </c>
+      <c r="M388" t="s">
         <v>2885</v>
       </c>
-      <c r="I388" t="s">
-        <v>19</v>
-      </c>
-      <c r="K388" t="s">
-        <v>21</v>
-      </c>
-      <c r="L388">
-        <v>21</v>
-      </c>
-      <c r="M388" t="s">
+      <c r="N388" t="s">
         <v>2886</v>
-      </c>
-      <c r="N388" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
@@ -29462,25 +29462,25 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C389" t="s">
         <v>2888</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
         <v>2889</v>
       </c>
-      <c r="D389">
-        <v>1</v>
-      </c>
-      <c r="E389" t="s">
+      <c r="F389" t="s">
         <v>2890</v>
       </c>
-      <c r="F389" t="s">
+      <c r="G389" t="s">
         <v>2891</v>
       </c>
-      <c r="G389" t="s">
+      <c r="H389" t="s">
         <v>2892</v>
-      </c>
-      <c r="H389" t="s">
-        <v>2893</v>
       </c>
       <c r="I389" t="s">
         <v>19</v>
@@ -29492,10 +29492,10 @@
         <v>181</v>
       </c>
       <c r="M389" t="s">
+        <v>2893</v>
+      </c>
+      <c r="N389" t="s">
         <v>2894</v>
-      </c>
-      <c r="N389" t="s">
-        <v>2895</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
@@ -29503,25 +29503,25 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C390" t="s">
         <v>2896</v>
       </c>
-      <c r="C390" t="s">
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390" t="s">
         <v>2897</v>
-      </c>
-      <c r="D390">
-        <v>1</v>
-      </c>
-      <c r="E390" t="s">
-        <v>2898</v>
       </c>
       <c r="F390" t="s">
         <v>267</v>
       </c>
       <c r="G390" t="s">
+        <v>2898</v>
+      </c>
+      <c r="H390" t="s">
         <v>2899</v>
-      </c>
-      <c r="H390" t="s">
-        <v>2900</v>
       </c>
       <c r="I390" t="s">
         <v>19</v>
@@ -29533,10 +29533,10 @@
         <v>180</v>
       </c>
       <c r="M390" t="s">
+        <v>2900</v>
+      </c>
+      <c r="N390" t="s">
         <v>2901</v>
-      </c>
-      <c r="N390" t="s">
-        <v>2902</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
@@ -29544,25 +29544,25 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C391" t="s">
         <v>2903</v>
       </c>
-      <c r="C391" t="s">
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
         <v>2904</v>
-      </c>
-      <c r="D391">
-        <v>1</v>
-      </c>
-      <c r="E391" t="s">
-        <v>2905</v>
       </c>
       <c r="F391" t="s">
         <v>93</v>
       </c>
       <c r="G391" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H391" t="s">
         <v>2906</v>
-      </c>
-      <c r="H391" t="s">
-        <v>2907</v>
       </c>
       <c r="I391" t="s">
         <v>19</v>
@@ -29574,10 +29574,10 @@
         <v>179</v>
       </c>
       <c r="M391" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N391" t="s">
         <v>2908</v>
-      </c>
-      <c r="N391" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
@@ -29585,25 +29585,25 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C392" t="s">
         <v>2910</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
         <v>2911</v>
-      </c>
-      <c r="D392">
-        <v>1</v>
-      </c>
-      <c r="E392" t="s">
-        <v>2912</v>
       </c>
       <c r="F392" t="s">
         <v>486</v>
       </c>
       <c r="G392" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H392" t="s">
         <v>2913</v>
-      </c>
-      <c r="H392" t="s">
-        <v>2914</v>
       </c>
       <c r="I392" t="s">
         <v>19</v>
@@ -29615,10 +29615,10 @@
         <v>178</v>
       </c>
       <c r="M392" t="s">
+        <v>2914</v>
+      </c>
+      <c r="N392" t="s">
         <v>2915</v>
-      </c>
-      <c r="N392" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
@@ -29626,25 +29626,25 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C393" t="s">
         <v>2917</v>
       </c>
-      <c r="C393" t="s">
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393" t="s">
         <v>2918</v>
-      </c>
-      <c r="D393">
-        <v>1</v>
-      </c>
-      <c r="E393" t="s">
-        <v>2919</v>
       </c>
       <c r="F393" t="s">
         <v>736</v>
       </c>
       <c r="G393" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H393" t="s">
         <v>2920</v>
-      </c>
-      <c r="H393" t="s">
-        <v>2921</v>
       </c>
       <c r="I393" t="s">
         <v>19</v>
@@ -29656,10 +29656,10 @@
         <v>177</v>
       </c>
       <c r="M393" t="s">
+        <v>2921</v>
+      </c>
+      <c r="N393" t="s">
         <v>2922</v>
-      </c>
-      <c r="N393" t="s">
-        <v>2923</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
@@ -29667,25 +29667,25 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C394" t="s">
         <v>2924</v>
       </c>
-      <c r="C394" t="s">
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
         <v>2925</v>
-      </c>
-      <c r="D394">
-        <v>1</v>
-      </c>
-      <c r="E394" t="s">
-        <v>2926</v>
       </c>
       <c r="F394" t="s">
         <v>267</v>
       </c>
       <c r="G394" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H394" t="s">
         <v>2927</v>
-      </c>
-      <c r="H394" t="s">
-        <v>2928</v>
       </c>
       <c r="I394" t="s">
         <v>19</v>
@@ -29697,10 +29697,10 @@
         <v>176</v>
       </c>
       <c r="M394" t="s">
+        <v>2928</v>
+      </c>
+      <c r="N394" t="s">
         <v>2929</v>
-      </c>
-      <c r="N394" t="s">
-        <v>2930</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
@@ -29708,25 +29708,25 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C395" t="s">
         <v>2931</v>
       </c>
-      <c r="C395" t="s">
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
         <v>2932</v>
-      </c>
-      <c r="D395">
-        <v>1</v>
-      </c>
-      <c r="E395" t="s">
-        <v>2933</v>
       </c>
       <c r="F395" t="s">
         <v>563</v>
       </c>
       <c r="G395" t="s">
+        <v>2933</v>
+      </c>
+      <c r="H395" t="s">
         <v>2934</v>
-      </c>
-      <c r="H395" t="s">
-        <v>2935</v>
       </c>
       <c r="I395" t="s">
         <v>19</v>
@@ -29738,10 +29738,10 @@
         <v>175</v>
       </c>
       <c r="M395" t="s">
+        <v>2935</v>
+      </c>
+      <c r="N395" t="s">
         <v>2936</v>
-      </c>
-      <c r="N395" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
@@ -29749,25 +29749,25 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C396" t="s">
         <v>2938</v>
-      </c>
-      <c r="C396" t="s">
-        <v>2939</v>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F396" t="s">
         <v>2940</v>
       </c>
-      <c r="F396" t="s">
+      <c r="G396" t="s">
         <v>2941</v>
       </c>
-      <c r="G396" t="s">
+      <c r="H396" t="s">
         <v>2942</v>
-      </c>
-      <c r="H396" t="s">
-        <v>2943</v>
       </c>
       <c r="I396" t="s">
         <v>19</v>
@@ -29779,10 +29779,10 @@
         <v>84</v>
       </c>
       <c r="M396" t="s">
+        <v>2943</v>
+      </c>
+      <c r="N396" t="s">
         <v>2944</v>
-      </c>
-      <c r="N396" t="s">
-        <v>2945</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
@@ -29790,25 +29790,25 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C397" t="s">
         <v>2946</v>
       </c>
-      <c r="C397" t="s">
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397" t="s">
         <v>2947</v>
-      </c>
-      <c r="D397">
-        <v>1</v>
-      </c>
-      <c r="E397" t="s">
-        <v>2948</v>
       </c>
       <c r="F397" t="s">
         <v>1416</v>
       </c>
       <c r="G397" t="s">
+        <v>2948</v>
+      </c>
+      <c r="H397" t="s">
         <v>2949</v>
-      </c>
-      <c r="H397" t="s">
-        <v>2950</v>
       </c>
       <c r="I397" t="s">
         <v>19</v>
@@ -29820,10 +29820,10 @@
         <v>174</v>
       </c>
       <c r="M397" t="s">
+        <v>2950</v>
+      </c>
+      <c r="N397" t="s">
         <v>2951</v>
-      </c>
-      <c r="N397" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
@@ -29831,25 +29831,25 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C398" t="s">
         <v>2953</v>
       </c>
-      <c r="C398" t="s">
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
         <v>2954</v>
-      </c>
-      <c r="D398">
-        <v>1</v>
-      </c>
-      <c r="E398" t="s">
-        <v>2955</v>
       </c>
       <c r="F398" t="s">
         <v>668</v>
       </c>
       <c r="G398" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H398" t="s">
         <v>2956</v>
-      </c>
-      <c r="H398" t="s">
-        <v>2957</v>
       </c>
       <c r="I398" t="s">
         <v>19</v>
@@ -29861,10 +29861,10 @@
         <v>173</v>
       </c>
       <c r="M398" t="s">
+        <v>2957</v>
+      </c>
+      <c r="N398" t="s">
         <v>2958</v>
-      </c>
-      <c r="N398" t="s">
-        <v>2959</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
@@ -29872,16 +29872,16 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C399" t="s">
         <v>2960</v>
-      </c>
-      <c r="C399" t="s">
-        <v>2961</v>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="E399" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="F399" t="s">
         <v>831</v>
@@ -29890,7 +29890,7 @@
         <v>2253</v>
       </c>
       <c r="H399" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="I399" t="s">
         <v>19</v>
@@ -29902,10 +29902,10 @@
         <v>172</v>
       </c>
       <c r="M399" t="s">
+        <v>2963</v>
+      </c>
+      <c r="N399" t="s">
         <v>2964</v>
-      </c>
-      <c r="N399" t="s">
-        <v>2965</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
@@ -29913,22 +29913,22 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C400" t="s">
         <v>2966</v>
-      </c>
-      <c r="C400" t="s">
-        <v>2967</v>
       </c>
       <c r="D400">
         <v>0</v>
       </c>
       <c r="E400" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F400" t="s">
         <v>2968</v>
       </c>
-      <c r="F400" t="s">
+      <c r="H400" t="s">
         <v>2969</v>
-      </c>
-      <c r="H400" t="s">
-        <v>2970</v>
       </c>
       <c r="I400" t="s">
         <v>19</v>
@@ -29940,10 +29940,10 @@
         <v>20</v>
       </c>
       <c r="M400" t="s">
+        <v>2970</v>
+      </c>
+      <c r="N400" t="s">
         <v>2971</v>
-      </c>
-      <c r="N400" t="s">
-        <v>2972</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
@@ -29951,37 +29951,37 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C401" t="s">
         <v>2973</v>
-      </c>
-      <c r="C401" t="s">
-        <v>2974</v>
       </c>
       <c r="D401">
         <v>0</v>
       </c>
       <c r="E401" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="F401" t="s">
         <v>315</v>
       </c>
       <c r="H401" t="s">
+        <v>2975</v>
+      </c>
+      <c r="I401" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" t="s">
+        <v>21</v>
+      </c>
+      <c r="L401">
+        <v>19</v>
+      </c>
+      <c r="M401" t="s">
         <v>2976</v>
       </c>
-      <c r="I401" t="s">
-        <v>19</v>
-      </c>
-      <c r="K401" t="s">
-        <v>21</v>
-      </c>
-      <c r="L401">
-        <v>19</v>
-      </c>
-      <c r="M401" t="s">
+      <c r="N401" t="s">
         <v>2977</v>
-      </c>
-      <c r="N401" t="s">
-        <v>2978</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
@@ -29989,22 +29989,22 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C402" t="s">
         <v>2979</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402" t="s">
         <v>2980</v>
-      </c>
-      <c r="D402">
-        <v>1</v>
-      </c>
-      <c r="E402" t="s">
-        <v>2981</v>
       </c>
       <c r="F402" t="s">
         <v>1446</v>
       </c>
       <c r="H402" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="I402" t="s">
         <v>19</v>
@@ -30016,10 +30016,10 @@
         <v>171</v>
       </c>
       <c r="M402" t="s">
+        <v>2982</v>
+      </c>
+      <c r="N402" t="s">
         <v>2983</v>
-      </c>
-      <c r="N402" t="s">
-        <v>2984</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
@@ -30027,25 +30027,25 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C403" t="s">
         <v>2985</v>
       </c>
-      <c r="C403" t="s">
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
         <v>2986</v>
-      </c>
-      <c r="D403">
-        <v>1</v>
-      </c>
-      <c r="E403" t="s">
-        <v>2987</v>
       </c>
       <c r="F403" t="s">
         <v>146</v>
       </c>
       <c r="G403" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H403" t="s">
         <v>2988</v>
-      </c>
-      <c r="H403" t="s">
-        <v>2989</v>
       </c>
       <c r="I403" t="s">
         <v>19</v>
@@ -30057,10 +30057,10 @@
         <v>170</v>
       </c>
       <c r="M403" t="s">
+        <v>2989</v>
+      </c>
+      <c r="N403" t="s">
         <v>2990</v>
-      </c>
-      <c r="N403" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
@@ -30068,25 +30068,25 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C404" t="s">
         <v>2992</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404" t="s">
         <v>2993</v>
-      </c>
-      <c r="D404">
-        <v>1</v>
-      </c>
-      <c r="E404" t="s">
-        <v>2994</v>
       </c>
       <c r="F404" t="s">
         <v>486</v>
       </c>
       <c r="G404" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H404" t="s">
         <v>2995</v>
-      </c>
-      <c r="H404" t="s">
-        <v>2996</v>
       </c>
       <c r="I404" t="s">
         <v>19</v>
@@ -30098,10 +30098,10 @@
         <v>169</v>
       </c>
       <c r="M404" t="s">
+        <v>2996</v>
+      </c>
+      <c r="N404" t="s">
         <v>2997</v>
-      </c>
-      <c r="N404" t="s">
-        <v>2998</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
@@ -30109,25 +30109,25 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C405" t="s">
         <v>2999</v>
       </c>
-      <c r="C405" t="s">
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405" t="s">
         <v>3000</v>
-      </c>
-      <c r="D405">
-        <v>1</v>
-      </c>
-      <c r="E405" t="s">
-        <v>3001</v>
       </c>
       <c r="F405" t="s">
         <v>563</v>
       </c>
       <c r="G405" t="s">
+        <v>3001</v>
+      </c>
+      <c r="H405" t="s">
         <v>3002</v>
-      </c>
-      <c r="H405" t="s">
-        <v>3003</v>
       </c>
       <c r="I405" t="s">
         <v>19</v>
@@ -30139,10 +30139,10 @@
         <v>168</v>
       </c>
       <c r="M405" t="s">
+        <v>3003</v>
+      </c>
+      <c r="N405" t="s">
         <v>3004</v>
-      </c>
-      <c r="N405" t="s">
-        <v>3005</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
@@ -30150,25 +30150,25 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C406" t="s">
         <v>3006</v>
       </c>
-      <c r="C406" t="s">
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406" t="s">
         <v>3007</v>
-      </c>
-      <c r="D406">
-        <v>1</v>
-      </c>
-      <c r="E406" t="s">
-        <v>3008</v>
       </c>
       <c r="F406" t="s">
         <v>1251</v>
       </c>
       <c r="G406" t="s">
+        <v>3008</v>
+      </c>
+      <c r="H406" t="s">
         <v>3009</v>
-      </c>
-      <c r="H406" t="s">
-        <v>3010</v>
       </c>
       <c r="I406" t="s">
         <v>19</v>
@@ -30180,10 +30180,10 @@
         <v>167</v>
       </c>
       <c r="M406" t="s">
+        <v>3010</v>
+      </c>
+      <c r="N406" t="s">
         <v>3011</v>
-      </c>
-      <c r="N406" t="s">
-        <v>3012</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
@@ -30191,25 +30191,25 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C407" t="s">
         <v>3013</v>
-      </c>
-      <c r="C407" t="s">
-        <v>3014</v>
       </c>
       <c r="D407">
         <v>0</v>
       </c>
       <c r="E407" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F407" t="s">
+        <v>2846</v>
+      </c>
+      <c r="G407" t="s">
         <v>3015</v>
       </c>
-      <c r="F407" t="s">
-        <v>2847</v>
-      </c>
-      <c r="G407" t="s">
+      <c r="H407" t="s">
         <v>3016</v>
-      </c>
-      <c r="H407" t="s">
-        <v>3017</v>
       </c>
       <c r="I407" t="s">
         <v>19</v>
@@ -30221,10 +30221,10 @@
         <v>18</v>
       </c>
       <c r="M407" t="s">
+        <v>3017</v>
+      </c>
+      <c r="N407" t="s">
         <v>3018</v>
-      </c>
-      <c r="N407" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
@@ -30232,25 +30232,25 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C408" t="s">
         <v>3020</v>
-      </c>
-      <c r="C408" t="s">
-        <v>3021</v>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F408" t="s">
         <v>3022</v>
       </c>
-      <c r="F408" t="s">
+      <c r="G408" t="s">
         <v>3023</v>
       </c>
-      <c r="G408" t="s">
+      <c r="H408" t="s">
         <v>3024</v>
-      </c>
-      <c r="H408" t="s">
-        <v>3025</v>
       </c>
       <c r="I408" t="s">
         <v>19</v>
@@ -30262,10 +30262,10 @@
         <v>17</v>
       </c>
       <c r="M408" t="s">
+        <v>3025</v>
+      </c>
+      <c r="N408" t="s">
         <v>3026</v>
-      </c>
-      <c r="N408" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
@@ -30273,25 +30273,25 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C409" t="s">
         <v>3028</v>
-      </c>
-      <c r="C409" t="s">
-        <v>3029</v>
       </c>
       <c r="D409">
         <v>0</v>
       </c>
       <c r="E409" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="F409" t="s">
         <v>540</v>
       </c>
       <c r="G409" t="s">
+        <v>3030</v>
+      </c>
+      <c r="H409" t="s">
         <v>3031</v>
-      </c>
-      <c r="H409" t="s">
-        <v>3032</v>
       </c>
       <c r="I409" t="s">
         <v>19</v>
@@ -30303,10 +30303,10 @@
         <v>16</v>
       </c>
       <c r="M409" t="s">
+        <v>3032</v>
+      </c>
+      <c r="N409" t="s">
         <v>3033</v>
-      </c>
-      <c r="N409" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
@@ -30314,25 +30314,25 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C410" t="s">
         <v>3035</v>
-      </c>
-      <c r="C410" t="s">
-        <v>3036</v>
       </c>
       <c r="D410">
         <v>0</v>
       </c>
       <c r="E410" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F410" t="s">
         <v>3037</v>
       </c>
-      <c r="F410" t="s">
+      <c r="G410" t="s">
         <v>3038</v>
       </c>
-      <c r="G410" t="s">
+      <c r="H410" t="s">
         <v>3039</v>
-      </c>
-      <c r="H410" t="s">
-        <v>3040</v>
       </c>
       <c r="I410" t="s">
         <v>19</v>
@@ -30344,10 +30344,10 @@
         <v>70</v>
       </c>
       <c r="M410" t="s">
+        <v>3040</v>
+      </c>
+      <c r="N410" t="s">
         <v>3041</v>
-      </c>
-      <c r="N410" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
@@ -30355,25 +30355,25 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C411" t="s">
         <v>3043</v>
-      </c>
-      <c r="C411" t="s">
-        <v>3044</v>
       </c>
       <c r="D411">
         <v>0</v>
       </c>
       <c r="E411" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="F411" t="s">
         <v>1229</v>
       </c>
       <c r="G411" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H411" t="s">
         <v>3046</v>
-      </c>
-      <c r="H411" t="s">
-        <v>3047</v>
       </c>
       <c r="I411" t="s">
         <v>19</v>
@@ -30385,10 +30385,10 @@
         <v>15</v>
       </c>
       <c r="M411" t="s">
+        <v>3047</v>
+      </c>
+      <c r="N411" t="s">
         <v>3048</v>
-      </c>
-      <c r="N411" t="s">
-        <v>3049</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
@@ -30396,25 +30396,25 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C412" t="s">
         <v>3050</v>
       </c>
-      <c r="C412" t="s">
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412" t="s">
         <v>3051</v>
-      </c>
-      <c r="D412">
-        <v>1</v>
-      </c>
-      <c r="E412" t="s">
-        <v>3052</v>
       </c>
       <c r="F412" t="s">
         <v>668</v>
       </c>
       <c r="G412" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H412" t="s">
         <v>3053</v>
-      </c>
-      <c r="H412" t="s">
-        <v>3054</v>
       </c>
       <c r="I412" t="s">
         <v>19</v>
@@ -30426,10 +30426,10 @@
         <v>166</v>
       </c>
       <c r="M412" t="s">
+        <v>3054</v>
+      </c>
+      <c r="N412" t="s">
         <v>3055</v>
-      </c>
-      <c r="N412" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
@@ -30437,25 +30437,25 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C413" t="s">
         <v>3057</v>
       </c>
-      <c r="C413" t="s">
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413" t="s">
         <v>3058</v>
-      </c>
-      <c r="D413">
-        <v>1</v>
-      </c>
-      <c r="E413" t="s">
-        <v>3059</v>
       </c>
       <c r="F413" t="s">
         <v>486</v>
       </c>
       <c r="G413" t="s">
+        <v>3059</v>
+      </c>
+      <c r="H413" t="s">
         <v>3060</v>
-      </c>
-      <c r="H413" t="s">
-        <v>3061</v>
       </c>
       <c r="I413" t="s">
         <v>19</v>
@@ -30467,10 +30467,10 @@
         <v>165</v>
       </c>
       <c r="M413" t="s">
+        <v>3061</v>
+      </c>
+      <c r="N413" t="s">
         <v>3062</v>
-      </c>
-      <c r="N413" t="s">
-        <v>3063</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
@@ -30478,25 +30478,25 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C414" t="s">
         <v>3064</v>
       </c>
-      <c r="C414" t="s">
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414" t="s">
         <v>3065</v>
-      </c>
-      <c r="D414">
-        <v>1</v>
-      </c>
-      <c r="E414" t="s">
-        <v>3066</v>
       </c>
       <c r="F414" t="s">
         <v>1009</v>
       </c>
       <c r="G414" t="s">
+        <v>3066</v>
+      </c>
+      <c r="H414" t="s">
         <v>3067</v>
-      </c>
-      <c r="H414" t="s">
-        <v>3068</v>
       </c>
       <c r="I414" t="s">
         <v>19</v>
@@ -30508,10 +30508,10 @@
         <v>164</v>
       </c>
       <c r="M414" t="s">
+        <v>3068</v>
+      </c>
+      <c r="N414" t="s">
         <v>3069</v>
-      </c>
-      <c r="N414" t="s">
-        <v>3070</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
@@ -30519,25 +30519,25 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C415" t="s">
         <v>3071</v>
       </c>
-      <c r="C415" t="s">
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415" t="s">
         <v>3072</v>
-      </c>
-      <c r="D415">
-        <v>1</v>
-      </c>
-      <c r="E415" t="s">
-        <v>3073</v>
       </c>
       <c r="F415" t="s">
         <v>816</v>
       </c>
       <c r="G415" t="s">
+        <v>3073</v>
+      </c>
+      <c r="H415" t="s">
         <v>3074</v>
-      </c>
-      <c r="H415" t="s">
-        <v>3075</v>
       </c>
       <c r="I415" t="s">
         <v>19</v>
@@ -30549,10 +30549,10 @@
         <v>163</v>
       </c>
       <c r="M415" t="s">
+        <v>3075</v>
+      </c>
+      <c r="N415" t="s">
         <v>3076</v>
-      </c>
-      <c r="N415" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
@@ -30560,25 +30560,25 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C416" t="s">
         <v>3078</v>
       </c>
-      <c r="C416" t="s">
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416" t="s">
         <v>3079</v>
       </c>
-      <c r="D416">
-        <v>1</v>
-      </c>
-      <c r="E416" t="s">
+      <c r="F416" t="s">
         <v>3080</v>
       </c>
-      <c r="F416" t="s">
+      <c r="G416" t="s">
         <v>3081</v>
       </c>
-      <c r="G416" t="s">
+      <c r="H416" t="s">
         <v>3082</v>
-      </c>
-      <c r="H416" t="s">
-        <v>3083</v>
       </c>
       <c r="I416" t="s">
         <v>19</v>
@@ -30590,10 +30590,10 @@
         <v>162</v>
       </c>
       <c r="M416" t="s">
+        <v>3083</v>
+      </c>
+      <c r="N416" t="s">
         <v>3084</v>
-      </c>
-      <c r="N416" t="s">
-        <v>3085</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
@@ -30601,25 +30601,25 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C417" t="s">
         <v>3086</v>
-      </c>
-      <c r="C417" t="s">
-        <v>3087</v>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F417" t="s">
         <v>3088</v>
       </c>
-      <c r="F417" t="s">
+      <c r="G417" t="s">
         <v>3089</v>
       </c>
-      <c r="G417" t="s">
+      <c r="H417" t="s">
         <v>3090</v>
-      </c>
-      <c r="H417" t="s">
-        <v>3091</v>
       </c>
       <c r="I417" t="s">
         <v>19</v>
@@ -30631,10 +30631,10 @@
         <v>63</v>
       </c>
       <c r="M417" t="s">
+        <v>3091</v>
+      </c>
+      <c r="N417" t="s">
         <v>3092</v>
-      </c>
-      <c r="N417" t="s">
-        <v>3093</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
@@ -30642,25 +30642,25 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C418" t="s">
         <v>3094</v>
       </c>
-      <c r="C418" t="s">
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
         <v>3095</v>
       </c>
-      <c r="D418">
-        <v>1</v>
-      </c>
-      <c r="E418" t="s">
+      <c r="F418" t="s">
         <v>3096</v>
       </c>
-      <c r="F418" t="s">
+      <c r="G418" t="s">
         <v>3097</v>
       </c>
-      <c r="G418" t="s">
+      <c r="H418" t="s">
         <v>3098</v>
-      </c>
-      <c r="H418" t="s">
-        <v>3099</v>
       </c>
       <c r="I418" t="s">
         <v>19</v>
@@ -30672,10 +30672,10 @@
         <v>161</v>
       </c>
       <c r="M418" t="s">
+        <v>3099</v>
+      </c>
+      <c r="N418" t="s">
         <v>3100</v>
-      </c>
-      <c r="N418" t="s">
-        <v>3101</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
@@ -30683,25 +30683,25 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C419" t="s">
         <v>3102</v>
       </c>
-      <c r="C419" t="s">
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419" t="s">
         <v>3103</v>
-      </c>
-      <c r="D419">
-        <v>1</v>
-      </c>
-      <c r="E419" t="s">
-        <v>3104</v>
       </c>
       <c r="F419" t="s">
         <v>85</v>
       </c>
       <c r="G419" t="s">
+        <v>3104</v>
+      </c>
+      <c r="H419" t="s">
         <v>3105</v>
-      </c>
-      <c r="H419" t="s">
-        <v>3106</v>
       </c>
       <c r="I419" t="s">
         <v>19</v>
@@ -30713,10 +30713,10 @@
         <v>160</v>
       </c>
       <c r="M419" t="s">
+        <v>3106</v>
+      </c>
+      <c r="N419" t="s">
         <v>3107</v>
-      </c>
-      <c r="N419" t="s">
-        <v>3108</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
@@ -30724,25 +30724,25 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C420" t="s">
         <v>3109</v>
       </c>
-      <c r="C420" t="s">
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420" t="s">
         <v>3110</v>
-      </c>
-      <c r="D420">
-        <v>1</v>
-      </c>
-      <c r="E420" t="s">
-        <v>3111</v>
       </c>
       <c r="F420" t="s">
         <v>259</v>
       </c>
       <c r="G420" t="s">
+        <v>3111</v>
+      </c>
+      <c r="H420" t="s">
         <v>3112</v>
-      </c>
-      <c r="H420" t="s">
-        <v>3113</v>
       </c>
       <c r="I420" t="s">
         <v>19</v>
@@ -30754,10 +30754,10 @@
         <v>159</v>
       </c>
       <c r="M420" t="s">
+        <v>3113</v>
+      </c>
+      <c r="N420" t="s">
         <v>3114</v>
-      </c>
-      <c r="N420" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
@@ -30765,25 +30765,25 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C421" t="s">
         <v>3116</v>
       </c>
-      <c r="C421" t="s">
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421" t="s">
         <v>3117</v>
-      </c>
-      <c r="D421">
-        <v>1</v>
-      </c>
-      <c r="E421" t="s">
-        <v>3118</v>
       </c>
       <c r="F421" t="s">
         <v>392</v>
       </c>
       <c r="G421" t="s">
+        <v>3118</v>
+      </c>
+      <c r="H421" t="s">
         <v>3119</v>
-      </c>
-      <c r="H421" t="s">
-        <v>3120</v>
       </c>
       <c r="I421" t="s">
         <v>19</v>
@@ -30795,10 +30795,10 @@
         <v>158</v>
       </c>
       <c r="M421" t="s">
+        <v>3120</v>
+      </c>
+      <c r="N421" t="s">
         <v>3121</v>
-      </c>
-      <c r="N421" t="s">
-        <v>3122</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
@@ -30806,25 +30806,25 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C422" t="s">
         <v>3123</v>
-      </c>
-      <c r="C422" t="s">
-        <v>3124</v>
       </c>
       <c r="D422">
         <v>0</v>
       </c>
       <c r="E422" t="s">
+        <v>3124</v>
+      </c>
+      <c r="F422" t="s">
         <v>3125</v>
       </c>
-      <c r="F422" t="s">
+      <c r="G422" t="s">
         <v>3126</v>
       </c>
-      <c r="G422" t="s">
+      <c r="H422" t="s">
         <v>3127</v>
-      </c>
-      <c r="H422" t="s">
-        <v>3128</v>
       </c>
       <c r="I422" t="s">
         <v>19</v>
@@ -30836,10 +30836,10 @@
         <v>58</v>
       </c>
       <c r="M422" t="s">
+        <v>3128</v>
+      </c>
+      <c r="N422" t="s">
         <v>3129</v>
-      </c>
-      <c r="N422" t="s">
-        <v>3130</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
@@ -30847,25 +30847,25 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C423" t="s">
         <v>3131</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423" t="s">
         <v>3132</v>
       </c>
-      <c r="D423">
-        <v>1</v>
-      </c>
-      <c r="E423" t="s">
+      <c r="F423" t="s">
         <v>3133</v>
       </c>
-      <c r="F423" t="s">
+      <c r="G423" t="s">
         <v>3134</v>
       </c>
-      <c r="G423" t="s">
+      <c r="H423" t="s">
         <v>3135</v>
-      </c>
-      <c r="H423" t="s">
-        <v>3136</v>
       </c>
       <c r="I423" t="s">
         <v>19</v>
@@ -30877,10 +30877,10 @@
         <v>157</v>
       </c>
       <c r="M423" t="s">
+        <v>3136</v>
+      </c>
+      <c r="N423" t="s">
         <v>3137</v>
-      </c>
-      <c r="N423" t="s">
-        <v>3138</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
@@ -30888,25 +30888,25 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C424" t="s">
         <v>3139</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424" t="s">
         <v>3140</v>
-      </c>
-      <c r="D424">
-        <v>1</v>
-      </c>
-      <c r="E424" t="s">
-        <v>3141</v>
       </c>
       <c r="F424" t="s">
         <v>1734</v>
       </c>
       <c r="G424" t="s">
+        <v>3141</v>
+      </c>
+      <c r="H424" t="s">
         <v>3142</v>
-      </c>
-      <c r="H424" t="s">
-        <v>3143</v>
       </c>
       <c r="I424" t="s">
         <v>19</v>
@@ -30918,10 +30918,10 @@
         <v>156</v>
       </c>
       <c r="M424" t="s">
+        <v>3143</v>
+      </c>
+      <c r="N424" t="s">
         <v>3144</v>
-      </c>
-      <c r="N424" t="s">
-        <v>3145</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
@@ -30929,25 +30929,25 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C425" t="s">
         <v>3146</v>
-      </c>
-      <c r="C425" t="s">
-        <v>3147</v>
       </c>
       <c r="D425">
         <v>0</v>
       </c>
       <c r="E425" t="s">
+        <v>3147</v>
+      </c>
+      <c r="F425" t="s">
+        <v>2846</v>
+      </c>
+      <c r="G425" t="s">
         <v>3148</v>
       </c>
-      <c r="F425" t="s">
-        <v>2847</v>
-      </c>
-      <c r="G425" t="s">
+      <c r="H425" t="s">
         <v>3149</v>
-      </c>
-      <c r="H425" t="s">
-        <v>3150</v>
       </c>
       <c r="I425" t="s">
         <v>19</v>
@@ -30959,10 +30959,10 @@
         <v>5</v>
       </c>
       <c r="M425" t="s">
+        <v>3150</v>
+      </c>
+      <c r="N425" t="s">
         <v>3151</v>
-      </c>
-      <c r="N425" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
@@ -30970,25 +30970,25 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C426" t="s">
         <v>3153</v>
       </c>
-      <c r="C426" t="s">
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426" t="s">
         <v>3154</v>
-      </c>
-      <c r="D426">
-        <v>1</v>
-      </c>
-      <c r="E426" t="s">
-        <v>3155</v>
       </c>
       <c r="F426" t="s">
         <v>85</v>
       </c>
       <c r="G426" t="s">
+        <v>3155</v>
+      </c>
+      <c r="H426" t="s">
         <v>3156</v>
-      </c>
-      <c r="H426" t="s">
-        <v>3157</v>
       </c>
       <c r="I426" t="s">
         <v>19</v>
@@ -31000,10 +31000,10 @@
         <v>155</v>
       </c>
       <c r="M426" t="s">
+        <v>3157</v>
+      </c>
+      <c r="N426" t="s">
         <v>3158</v>
-      </c>
-      <c r="N426" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
@@ -31011,25 +31011,25 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C427" t="s">
         <v>3160</v>
-      </c>
-      <c r="C427" t="s">
-        <v>3161</v>
       </c>
       <c r="D427">
         <v>0</v>
       </c>
       <c r="E427" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F427" t="s">
         <v>3162</v>
       </c>
-      <c r="F427" t="s">
+      <c r="G427" t="s">
         <v>3163</v>
       </c>
-      <c r="G427" t="s">
+      <c r="H427" t="s">
         <v>3164</v>
-      </c>
-      <c r="H427" t="s">
-        <v>3165</v>
       </c>
       <c r="I427" t="s">
         <v>19</v>
@@ -31041,10 +31041,10 @@
         <v>834</v>
       </c>
       <c r="M427" t="s">
+        <v>3165</v>
+      </c>
+      <c r="N427" t="s">
         <v>3166</v>
-      </c>
-      <c r="N427" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
@@ -31052,25 +31052,25 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C428" t="s">
         <v>3168</v>
       </c>
-      <c r="C428" t="s">
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428" t="s">
         <v>3169</v>
-      </c>
-      <c r="D428">
-        <v>1</v>
-      </c>
-      <c r="E428" t="s">
-        <v>3170</v>
       </c>
       <c r="F428" t="s">
         <v>211</v>
       </c>
       <c r="G428" t="s">
+        <v>3170</v>
+      </c>
+      <c r="H428" t="s">
         <v>3171</v>
-      </c>
-      <c r="H428" t="s">
-        <v>3172</v>
       </c>
       <c r="I428" t="s">
         <v>19</v>
@@ -31082,10 +31082,10 @@
         <v>154</v>
       </c>
       <c r="M428" t="s">
+        <v>3172</v>
+      </c>
+      <c r="N428" t="s">
         <v>3173</v>
-      </c>
-      <c r="N428" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
@@ -31093,25 +31093,25 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C429" t="s">
         <v>3175</v>
       </c>
-      <c r="C429" t="s">
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429" t="s">
         <v>3176</v>
       </c>
-      <c r="D429">
-        <v>1</v>
-      </c>
-      <c r="E429" t="s">
+      <c r="F429" t="s">
         <v>3177</v>
       </c>
-      <c r="F429" t="s">
+      <c r="G429" t="s">
         <v>3178</v>
       </c>
-      <c r="G429" t="s">
+      <c r="H429" t="s">
         <v>3179</v>
-      </c>
-      <c r="H429" t="s">
-        <v>3180</v>
       </c>
       <c r="I429" t="s">
         <v>19</v>
@@ -31123,10 +31123,10 @@
         <v>153</v>
       </c>
       <c r="M429" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N429" t="s">
         <v>3181</v>
-      </c>
-      <c r="N429" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
@@ -31134,25 +31134,25 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C430" t="s">
         <v>3183</v>
-      </c>
-      <c r="C430" t="s">
-        <v>3184</v>
       </c>
       <c r="D430">
         <v>0</v>
       </c>
       <c r="E430" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F430" t="s">
         <v>3185</v>
       </c>
-      <c r="F430" t="s">
+      <c r="G430" t="s">
         <v>3186</v>
       </c>
-      <c r="G430" t="s">
+      <c r="H430" t="s">
         <v>3187</v>
-      </c>
-      <c r="H430" t="s">
-        <v>3188</v>
       </c>
       <c r="I430" t="s">
         <v>19</v>
@@ -31164,10 +31164,10 @@
         <v>834</v>
       </c>
       <c r="M430" t="s">
+        <v>3188</v>
+      </c>
+      <c r="N430" t="s">
         <v>3189</v>
-      </c>
-      <c r="N430" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
@@ -31175,25 +31175,25 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C431" t="s">
         <v>3191</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431" t="s">
         <v>3192</v>
-      </c>
-      <c r="D431">
-        <v>1</v>
-      </c>
-      <c r="E431" t="s">
-        <v>3193</v>
       </c>
       <c r="F431" t="s">
         <v>1834</v>
       </c>
       <c r="G431" t="s">
+        <v>3193</v>
+      </c>
+      <c r="H431" t="s">
         <v>3194</v>
-      </c>
-      <c r="H431" t="s">
-        <v>3195</v>
       </c>
       <c r="I431" t="s">
         <v>19</v>
@@ -31205,10 +31205,10 @@
         <v>152</v>
       </c>
       <c r="M431" t="s">
+        <v>3195</v>
+      </c>
+      <c r="N431" t="s">
         <v>3196</v>
-      </c>
-      <c r="N431" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
@@ -31216,25 +31216,25 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C432" t="s">
         <v>3198</v>
-      </c>
-      <c r="C432" t="s">
-        <v>3199</v>
       </c>
       <c r="D432">
         <v>0</v>
       </c>
       <c r="E432" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F432" t="s">
         <v>3200</v>
       </c>
-      <c r="F432" t="s">
+      <c r="G432" t="s">
         <v>3201</v>
       </c>
-      <c r="G432" t="s">
+      <c r="H432" t="s">
         <v>3202</v>
-      </c>
-      <c r="H432" t="s">
-        <v>3203</v>
       </c>
       <c r="I432" t="s">
         <v>19</v>
@@ -31246,10 +31246,10 @@
         <v>834</v>
       </c>
       <c r="M432" t="s">
+        <v>3203</v>
+      </c>
+      <c r="N432" t="s">
         <v>3204</v>
-      </c>
-      <c r="N432" t="s">
-        <v>3205</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
@@ -31257,25 +31257,25 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C433" t="s">
         <v>3206</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433" t="s">
         <v>3207</v>
-      </c>
-      <c r="D433">
-        <v>1</v>
-      </c>
-      <c r="E433" t="s">
-        <v>3208</v>
       </c>
       <c r="F433" t="s">
         <v>736</v>
       </c>
       <c r="G433" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H433" t="s">
         <v>3209</v>
-      </c>
-      <c r="H433" t="s">
-        <v>3210</v>
       </c>
       <c r="I433" t="s">
         <v>19</v>
@@ -31287,10 +31287,10 @@
         <v>151</v>
       </c>
       <c r="M433" t="s">
+        <v>3210</v>
+      </c>
+      <c r="N433" t="s">
         <v>3211</v>
-      </c>
-      <c r="N433" t="s">
-        <v>3212</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
@@ -31298,25 +31298,25 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C434" t="s">
         <v>3213</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434" t="s">
         <v>3214</v>
       </c>
-      <c r="D434">
-        <v>1</v>
-      </c>
-      <c r="E434" t="s">
+      <c r="F434" t="s">
         <v>3215</v>
       </c>
-      <c r="F434" t="s">
+      <c r="G434" t="s">
         <v>3216</v>
       </c>
-      <c r="G434" t="s">
+      <c r="H434" t="s">
         <v>3217</v>
-      </c>
-      <c r="H434" t="s">
-        <v>3218</v>
       </c>
       <c r="I434" t="s">
         <v>19</v>
@@ -31328,10 +31328,10 @@
         <v>150</v>
       </c>
       <c r="M434" t="s">
+        <v>3218</v>
+      </c>
+      <c r="N434" t="s">
         <v>3219</v>
-      </c>
-      <c r="N434" t="s">
-        <v>3220</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
@@ -31339,25 +31339,25 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C435" t="s">
         <v>3221</v>
       </c>
-      <c r="C435" t="s">
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
         <v>3222</v>
-      </c>
-      <c r="D435">
-        <v>1</v>
-      </c>
-      <c r="E435" t="s">
-        <v>3223</v>
       </c>
       <c r="F435" t="s">
         <v>2519</v>
       </c>
       <c r="G435" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H435" t="s">
         <v>3224</v>
-      </c>
-      <c r="H435" t="s">
-        <v>3225</v>
       </c>
       <c r="I435" t="s">
         <v>19</v>
@@ -31369,10 +31369,10 @@
         <v>149</v>
       </c>
       <c r="M435" t="s">
+        <v>3225</v>
+      </c>
+      <c r="N435" t="s">
         <v>3226</v>
-      </c>
-      <c r="N435" t="s">
-        <v>3227</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
@@ -31380,25 +31380,25 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C436" t="s">
         <v>3228</v>
-      </c>
-      <c r="C436" t="s">
-        <v>3229</v>
       </c>
       <c r="D436">
         <v>0</v>
       </c>
       <c r="E436" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F436" t="s">
         <v>3230</v>
       </c>
-      <c r="F436" t="s">
+      <c r="G436" t="s">
         <v>3231</v>
       </c>
-      <c r="G436" t="s">
+      <c r="H436" t="s">
         <v>3232</v>
-      </c>
-      <c r="H436" t="s">
-        <v>3233</v>
       </c>
       <c r="I436" t="s">
         <v>19</v>
@@ -31410,10 +31410,10 @@
         <v>44</v>
       </c>
       <c r="M436" t="s">
+        <v>3233</v>
+      </c>
+      <c r="N436" t="s">
         <v>3234</v>
-      </c>
-      <c r="N436" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
@@ -31421,25 +31421,25 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C437" t="s">
         <v>3236</v>
       </c>
-      <c r="C437" t="s">
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437" t="s">
         <v>3237</v>
       </c>
-      <c r="D437">
-        <v>1</v>
-      </c>
-      <c r="E437" t="s">
+      <c r="F437" t="s">
         <v>3238</v>
       </c>
-      <c r="F437" t="s">
+      <c r="G437" t="s">
         <v>3239</v>
       </c>
-      <c r="G437" t="s">
+      <c r="H437" t="s">
         <v>3240</v>
-      </c>
-      <c r="H437" t="s">
-        <v>3241</v>
       </c>
       <c r="I437" t="s">
         <v>19</v>
@@ -31451,10 +31451,10 @@
         <v>148</v>
       </c>
       <c r="M437" t="s">
+        <v>3241</v>
+      </c>
+      <c r="N437" t="s">
         <v>3242</v>
-      </c>
-      <c r="N437" t="s">
-        <v>3243</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
@@ -31462,25 +31462,25 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C438" t="s">
         <v>3244</v>
       </c>
-      <c r="C438" t="s">
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438" t="s">
         <v>3245</v>
-      </c>
-      <c r="D438">
-        <v>1</v>
-      </c>
-      <c r="E438" t="s">
-        <v>3246</v>
       </c>
       <c r="F438" t="s">
         <v>1251</v>
       </c>
       <c r="G438" t="s">
+        <v>3246</v>
+      </c>
+      <c r="H438" t="s">
         <v>3247</v>
-      </c>
-      <c r="H438" t="s">
-        <v>3248</v>
       </c>
       <c r="I438" t="s">
         <v>19</v>
@@ -31492,10 +31492,10 @@
         <v>147</v>
       </c>
       <c r="M438" t="s">
+        <v>3248</v>
+      </c>
+      <c r="N438" t="s">
         <v>3249</v>
-      </c>
-      <c r="N438" t="s">
-        <v>3250</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
@@ -31503,25 +31503,25 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C439" t="s">
         <v>3251</v>
       </c>
-      <c r="C439" t="s">
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439" t="s">
         <v>3252</v>
-      </c>
-      <c r="D439">
-        <v>1</v>
-      </c>
-      <c r="E439" t="s">
-        <v>3253</v>
       </c>
       <c r="F439" t="s">
         <v>1446</v>
       </c>
       <c r="G439" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H439" t="s">
         <v>3254</v>
-      </c>
-      <c r="H439" t="s">
-        <v>3255</v>
       </c>
       <c r="I439" t="s">
         <v>19</v>
@@ -31533,10 +31533,10 @@
         <v>146</v>
       </c>
       <c r="M439" t="s">
+        <v>3255</v>
+      </c>
+      <c r="N439" t="s">
         <v>3256</v>
-      </c>
-      <c r="N439" t="s">
-        <v>3257</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
@@ -31544,25 +31544,25 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C440" t="s">
         <v>3258</v>
       </c>
-      <c r="C440" t="s">
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440" t="s">
         <v>3259</v>
       </c>
-      <c r="D440">
-        <v>1</v>
-      </c>
-      <c r="E440" t="s">
+      <c r="F440" t="s">
         <v>3260</v>
       </c>
-      <c r="F440" t="s">
+      <c r="G440" t="s">
         <v>3261</v>
       </c>
-      <c r="G440" t="s">
+      <c r="H440" t="s">
         <v>3262</v>
-      </c>
-      <c r="H440" t="s">
-        <v>3263</v>
       </c>
       <c r="I440" t="s">
         <v>19</v>
@@ -31574,10 +31574,10 @@
         <v>145</v>
       </c>
       <c r="M440" t="s">
+        <v>3263</v>
+      </c>
+      <c r="N440" t="s">
         <v>3264</v>
-      </c>
-      <c r="N440" t="s">
-        <v>3265</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
@@ -31585,25 +31585,25 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C441" t="s">
         <v>3266</v>
-      </c>
-      <c r="C441" t="s">
-        <v>3267</v>
       </c>
       <c r="D441">
         <v>0</v>
       </c>
       <c r="E441" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F441" t="s">
         <v>3268</v>
       </c>
-      <c r="F441" t="s">
+      <c r="G441" t="s">
         <v>3269</v>
       </c>
-      <c r="G441" t="s">
+      <c r="H441" t="s">
         <v>3270</v>
-      </c>
-      <c r="H441" t="s">
-        <v>3271</v>
       </c>
       <c r="I441" t="s">
         <v>19</v>
@@ -31615,10 +31615,10 @@
         <v>4</v>
       </c>
       <c r="M441" t="s">
+        <v>3271</v>
+      </c>
+      <c r="N441" t="s">
         <v>3272</v>
-      </c>
-      <c r="N441" t="s">
-        <v>3273</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
@@ -31626,25 +31626,25 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C442" t="s">
         <v>3274</v>
       </c>
-      <c r="C442" t="s">
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442" t="s">
         <v>3275</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
-      </c>
-      <c r="E442" t="s">
-        <v>3276</v>
       </c>
       <c r="F442" t="s">
         <v>1834</v>
       </c>
       <c r="G442" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H442" t="s">
         <v>3277</v>
-      </c>
-      <c r="H442" t="s">
-        <v>3278</v>
       </c>
       <c r="I442" t="s">
         <v>19</v>
@@ -31656,10 +31656,10 @@
         <v>144</v>
       </c>
       <c r="M442" t="s">
+        <v>3278</v>
+      </c>
+      <c r="N442" t="s">
         <v>3279</v>
-      </c>
-      <c r="N442" t="s">
-        <v>3280</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
@@ -31667,25 +31667,25 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C443" t="s">
         <v>3281</v>
       </c>
-      <c r="C443" t="s">
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443" t="s">
         <v>3282</v>
-      </c>
-      <c r="D443">
-        <v>1</v>
-      </c>
-      <c r="E443" t="s">
-        <v>3283</v>
       </c>
       <c r="F443" t="s">
         <v>259</v>
       </c>
       <c r="G443" t="s">
+        <v>3283</v>
+      </c>
+      <c r="H443" t="s">
         <v>3284</v>
-      </c>
-      <c r="H443" t="s">
-        <v>3285</v>
       </c>
       <c r="I443" t="s">
         <v>19</v>
@@ -31697,10 +31697,10 @@
         <v>143</v>
       </c>
       <c r="M443" t="s">
+        <v>3285</v>
+      </c>
+      <c r="N443" t="s">
         <v>3286</v>
-      </c>
-      <c r="N443" t="s">
-        <v>3287</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
@@ -31708,16 +31708,16 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C444" t="s">
         <v>3288</v>
       </c>
-      <c r="C444" t="s">
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444" t="s">
         <v>3289</v>
-      </c>
-      <c r="D444">
-        <v>1</v>
-      </c>
-      <c r="E444" t="s">
-        <v>3290</v>
       </c>
       <c r="F444" t="s">
         <v>211</v>
@@ -31726,7 +31726,7 @@
         <v>2253</v>
       </c>
       <c r="H444" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="I444" t="s">
         <v>19</v>
@@ -31738,10 +31738,10 @@
         <v>142</v>
       </c>
       <c r="M444" t="s">
+        <v>3291</v>
+      </c>
+      <c r="N444" t="s">
         <v>3292</v>
-      </c>
-      <c r="N444" t="s">
-        <v>3293</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
@@ -31749,25 +31749,25 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C445" t="s">
         <v>3294</v>
-      </c>
-      <c r="C445" t="s">
-        <v>3295</v>
       </c>
       <c r="D445">
         <v>0</v>
       </c>
       <c r="E445" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="F445" t="s">
         <v>2186</v>
       </c>
       <c r="G445" t="s">
+        <v>3296</v>
+      </c>
+      <c r="H445" t="s">
         <v>3297</v>
-      </c>
-      <c r="H445" t="s">
-        <v>3298</v>
       </c>
       <c r="I445" t="s">
         <v>19</v>
@@ -31779,10 +31779,10 @@
         <v>14</v>
       </c>
       <c r="M445" t="s">
+        <v>3298</v>
+      </c>
+      <c r="N445" t="s">
         <v>3299</v>
-      </c>
-      <c r="N445" t="s">
-        <v>3300</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
@@ -31790,25 +31790,25 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C446" t="s">
         <v>3301</v>
-      </c>
-      <c r="C446" t="s">
-        <v>3302</v>
       </c>
       <c r="D446">
         <v>0</v>
       </c>
       <c r="E446" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F446" t="s">
         <v>972</v>
       </c>
       <c r="G446" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H446" t="s">
         <v>3304</v>
-      </c>
-      <c r="H446" t="s">
-        <v>3305</v>
       </c>
       <c r="I446" t="s">
         <v>19</v>
@@ -31820,10 +31820,10 @@
         <v>13</v>
       </c>
       <c r="M446" t="s">
+        <v>3305</v>
+      </c>
+      <c r="N446" t="s">
         <v>3306</v>
-      </c>
-      <c r="N446" t="s">
-        <v>3307</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
@@ -31831,25 +31831,25 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C447" t="s">
         <v>3308</v>
       </c>
-      <c r="C447" t="s">
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447" t="s">
         <v>3309</v>
-      </c>
-      <c r="D447">
-        <v>1</v>
-      </c>
-      <c r="E447" t="s">
-        <v>3310</v>
       </c>
       <c r="F447" t="s">
         <v>1200</v>
       </c>
       <c r="G447" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H447" t="s">
         <v>3311</v>
-      </c>
-      <c r="H447" t="s">
-        <v>3312</v>
       </c>
       <c r="I447" t="s">
         <v>19</v>
@@ -31861,10 +31861,10 @@
         <v>141</v>
       </c>
       <c r="M447" t="s">
+        <v>3312</v>
+      </c>
+      <c r="N447" t="s">
         <v>3313</v>
-      </c>
-      <c r="N447" t="s">
-        <v>3314</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
@@ -31872,25 +31872,25 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C448" t="s">
         <v>3315</v>
       </c>
-      <c r="C448" t="s">
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448" t="s">
         <v>3316</v>
-      </c>
-      <c r="D448">
-        <v>1</v>
-      </c>
-      <c r="E448" t="s">
-        <v>3317</v>
       </c>
       <c r="F448" t="s">
         <v>85</v>
       </c>
       <c r="G448" t="s">
+        <v>3317</v>
+      </c>
+      <c r="H448" t="s">
         <v>3318</v>
-      </c>
-      <c r="H448" t="s">
-        <v>3319</v>
       </c>
       <c r="I448" t="s">
         <v>19</v>
@@ -31902,10 +31902,10 @@
         <v>140</v>
       </c>
       <c r="M448" t="s">
+        <v>3319</v>
+      </c>
+      <c r="N448" t="s">
         <v>3320</v>
-      </c>
-      <c r="N448" t="s">
-        <v>3321</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
@@ -31913,25 +31913,25 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C449" t="s">
         <v>3322</v>
       </c>
-      <c r="C449" t="s">
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449" t="s">
         <v>3323</v>
-      </c>
-      <c r="D449">
-        <v>1</v>
-      </c>
-      <c r="E449" t="s">
-        <v>3324</v>
       </c>
       <c r="F449" t="s">
         <v>1251</v>
       </c>
       <c r="G449" t="s">
+        <v>3324</v>
+      </c>
+      <c r="H449" t="s">
         <v>3325</v>
-      </c>
-      <c r="H449" t="s">
-        <v>3326</v>
       </c>
       <c r="I449" t="s">
         <v>19</v>
@@ -31943,10 +31943,10 @@
         <v>139</v>
       </c>
       <c r="M449" t="s">
+        <v>3326</v>
+      </c>
+      <c r="N449" t="s">
         <v>3327</v>
-      </c>
-      <c r="N449" t="s">
-        <v>3328</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
@@ -31954,25 +31954,25 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C450" t="s">
         <v>3329</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450" t="s">
         <v>3330</v>
       </c>
-      <c r="D450">
-        <v>1</v>
-      </c>
-      <c r="E450" t="s">
+      <c r="F450" t="s">
         <v>3331</v>
       </c>
-      <c r="F450" t="s">
+      <c r="G450" t="s">
         <v>3332</v>
       </c>
-      <c r="G450" t="s">
+      <c r="H450" t="s">
         <v>3333</v>
-      </c>
-      <c r="H450" t="s">
-        <v>3334</v>
       </c>
       <c r="I450" t="s">
         <v>19</v>
@@ -31984,10 +31984,10 @@
         <v>138</v>
       </c>
       <c r="M450" t="s">
+        <v>3334</v>
+      </c>
+      <c r="N450" t="s">
         <v>3335</v>
-      </c>
-      <c r="N450" t="s">
-        <v>3336</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
@@ -31995,25 +31995,25 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C451" t="s">
         <v>3337</v>
       </c>
-      <c r="C451" t="s">
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451" t="s">
         <v>3338</v>
-      </c>
-      <c r="D451">
-        <v>1</v>
-      </c>
-      <c r="E451" t="s">
-        <v>3339</v>
       </c>
       <c r="F451" t="s">
         <v>85</v>
       </c>
       <c r="G451" t="s">
+        <v>3339</v>
+      </c>
+      <c r="H451" t="s">
         <v>3340</v>
-      </c>
-      <c r="H451" t="s">
-        <v>3341</v>
       </c>
       <c r="I451" t="s">
         <v>19</v>
@@ -32025,10 +32025,10 @@
         <v>137</v>
       </c>
       <c r="M451" t="s">
+        <v>3341</v>
+      </c>
+      <c r="N451" t="s">
         <v>3342</v>
-      </c>
-      <c r="N451" t="s">
-        <v>3343</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
@@ -32036,25 +32036,25 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C452" t="s">
         <v>3344</v>
       </c>
-      <c r="C452" t="s">
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
         <v>3345</v>
-      </c>
-      <c r="D452">
-        <v>1</v>
-      </c>
-      <c r="E452" t="s">
-        <v>3346</v>
       </c>
       <c r="F452" t="s">
         <v>668</v>
       </c>
       <c r="G452" t="s">
+        <v>3346</v>
+      </c>
+      <c r="H452" t="s">
         <v>3347</v>
-      </c>
-      <c r="H452" t="s">
-        <v>3348</v>
       </c>
       <c r="I452" t="s">
         <v>19</v>
@@ -32066,10 +32066,10 @@
         <v>136</v>
       </c>
       <c r="M452" t="s">
+        <v>3348</v>
+      </c>
+      <c r="N452" t="s">
         <v>3349</v>
-      </c>
-      <c r="N452" t="s">
-        <v>3350</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
@@ -32077,25 +32077,25 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C453" t="s">
         <v>3351</v>
       </c>
-      <c r="C453" t="s">
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453" t="s">
         <v>3352</v>
       </c>
-      <c r="D453">
-        <v>1</v>
-      </c>
-      <c r="E453" t="s">
+      <c r="F453" t="s">
         <v>3353</v>
       </c>
-      <c r="F453" t="s">
+      <c r="G453" t="s">
         <v>3354</v>
       </c>
-      <c r="G453" t="s">
+      <c r="H453" t="s">
         <v>3355</v>
-      </c>
-      <c r="H453" t="s">
-        <v>3356</v>
       </c>
       <c r="I453" t="s">
         <v>19</v>
@@ -32107,10 +32107,10 @@
         <v>135</v>
       </c>
       <c r="M453" t="s">
+        <v>3356</v>
+      </c>
+      <c r="N453" t="s">
         <v>3357</v>
-      </c>
-      <c r="N453" t="s">
-        <v>3358</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
@@ -32118,25 +32118,25 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C454" t="s">
         <v>3359</v>
       </c>
-      <c r="C454" t="s">
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
         <v>3360</v>
-      </c>
-      <c r="D454">
-        <v>1</v>
-      </c>
-      <c r="E454" t="s">
-        <v>3361</v>
       </c>
       <c r="F454" t="s">
         <v>1401</v>
       </c>
       <c r="G454" t="s">
+        <v>3361</v>
+      </c>
+      <c r="H454" t="s">
         <v>3362</v>
-      </c>
-      <c r="H454" t="s">
-        <v>3363</v>
       </c>
       <c r="I454" t="s">
         <v>19</v>
@@ -32148,10 +32148,10 @@
         <v>134</v>
       </c>
       <c r="M454" t="s">
+        <v>3363</v>
+      </c>
+      <c r="N454" t="s">
         <v>3364</v>
-      </c>
-      <c r="N454" t="s">
-        <v>3365</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
@@ -32159,25 +32159,25 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C455" t="s">
         <v>3366</v>
-      </c>
-      <c r="C455" t="s">
-        <v>3367</v>
       </c>
       <c r="D455">
         <v>0</v>
       </c>
       <c r="E455" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F455" t="s">
         <v>3368</v>
       </c>
-      <c r="F455" t="s">
+      <c r="G455" t="s">
         <v>3369</v>
       </c>
-      <c r="G455" t="s">
+      <c r="H455" t="s">
         <v>3370</v>
-      </c>
-      <c r="H455" t="s">
-        <v>3371</v>
       </c>
       <c r="I455" t="s">
         <v>19</v>
@@ -32189,10 +32189,10 @@
         <v>3</v>
       </c>
       <c r="M455" t="s">
+        <v>3371</v>
+      </c>
+      <c r="N455" t="s">
         <v>3372</v>
-      </c>
-      <c r="N455" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
@@ -32200,25 +32200,25 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C456" t="s">
         <v>3374</v>
       </c>
-      <c r="C456" t="s">
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456" t="s">
         <v>3375</v>
       </c>
-      <c r="D456">
-        <v>1</v>
-      </c>
-      <c r="E456" t="s">
+      <c r="F456" t="s">
         <v>3376</v>
       </c>
-      <c r="F456" t="s">
+      <c r="G456" t="s">
         <v>3377</v>
       </c>
-      <c r="G456" t="s">
+      <c r="H456" t="s">
         <v>3378</v>
-      </c>
-      <c r="H456" t="s">
-        <v>3379</v>
       </c>
       <c r="I456" t="s">
         <v>19</v>
@@ -32230,10 +32230,10 @@
         <v>133</v>
       </c>
       <c r="M456" t="s">
+        <v>3379</v>
+      </c>
+      <c r="N456" t="s">
         <v>3380</v>
-      </c>
-      <c r="N456" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
@@ -32241,25 +32241,25 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C457" t="s">
         <v>3382</v>
       </c>
-      <c r="C457" t="s">
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457" t="s">
         <v>3383</v>
-      </c>
-      <c r="D457">
-        <v>1</v>
-      </c>
-      <c r="E457" t="s">
-        <v>3384</v>
       </c>
       <c r="F457" t="s">
         <v>1009</v>
       </c>
       <c r="G457" t="s">
+        <v>3384</v>
+      </c>
+      <c r="H457" t="s">
         <v>3385</v>
-      </c>
-      <c r="H457" t="s">
-        <v>3386</v>
       </c>
       <c r="I457" t="s">
         <v>19</v>
@@ -32271,10 +32271,10 @@
         <v>132</v>
       </c>
       <c r="M457" t="s">
+        <v>3386</v>
+      </c>
+      <c r="N457" t="s">
         <v>3387</v>
-      </c>
-      <c r="N457" t="s">
-        <v>3388</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
@@ -32282,25 +32282,25 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C458" t="s">
         <v>3389</v>
       </c>
-      <c r="C458" t="s">
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458" t="s">
         <v>3390</v>
-      </c>
-      <c r="D458">
-        <v>1</v>
-      </c>
-      <c r="E458" t="s">
-        <v>3391</v>
       </c>
       <c r="F458" t="s">
         <v>2657</v>
       </c>
       <c r="G458" t="s">
+        <v>3391</v>
+      </c>
+      <c r="H458" t="s">
         <v>3392</v>
-      </c>
-      <c r="H458" t="s">
-        <v>3393</v>
       </c>
       <c r="I458" t="s">
         <v>19</v>
@@ -32312,10 +32312,10 @@
         <v>131</v>
       </c>
       <c r="M458" t="s">
+        <v>3393</v>
+      </c>
+      <c r="N458" t="s">
         <v>3394</v>
-      </c>
-      <c r="N458" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
@@ -32323,25 +32323,25 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C459" t="s">
         <v>3396</v>
-      </c>
-      <c r="C459" t="s">
-        <v>3397</v>
       </c>
       <c r="D459">
         <v>0</v>
       </c>
       <c r="E459" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F459" t="s">
         <v>3398</v>
       </c>
-      <c r="F459" t="s">
+      <c r="G459" t="s">
         <v>3399</v>
       </c>
-      <c r="G459" t="s">
+      <c r="H459" t="s">
         <v>3400</v>
-      </c>
-      <c r="H459" t="s">
-        <v>3401</v>
       </c>
       <c r="I459" t="s">
         <v>19</v>
@@ -32353,10 +32353,10 @@
         <v>2</v>
       </c>
       <c r="M459" t="s">
+        <v>3401</v>
+      </c>
+      <c r="N459" t="s">
         <v>3402</v>
-      </c>
-      <c r="N459" t="s">
-        <v>3403</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
@@ -32364,25 +32364,25 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C460" t="s">
         <v>3404</v>
       </c>
-      <c r="C460" t="s">
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460" t="s">
         <v>3405</v>
-      </c>
-      <c r="D460">
-        <v>1</v>
-      </c>
-      <c r="E460" t="s">
-        <v>3406</v>
       </c>
       <c r="F460" t="s">
         <v>1017</v>
       </c>
       <c r="G460" t="s">
+        <v>3406</v>
+      </c>
+      <c r="H460" t="s">
         <v>3407</v>
-      </c>
-      <c r="H460" t="s">
-        <v>3408</v>
       </c>
       <c r="I460" t="s">
         <v>19</v>
@@ -32394,10 +32394,10 @@
         <v>130</v>
       </c>
       <c r="M460" t="s">
+        <v>3408</v>
+      </c>
+      <c r="N460" t="s">
         <v>3409</v>
-      </c>
-      <c r="N460" t="s">
-        <v>3410</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
@@ -32405,25 +32405,25 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C461" t="s">
         <v>3411</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461" t="s">
         <v>3412</v>
-      </c>
-      <c r="D461">
-        <v>1</v>
-      </c>
-      <c r="E461" t="s">
-        <v>3413</v>
       </c>
       <c r="F461" t="s">
         <v>831</v>
       </c>
       <c r="G461" t="s">
+        <v>3413</v>
+      </c>
+      <c r="H461" t="s">
         <v>3414</v>
-      </c>
-      <c r="H461" t="s">
-        <v>3415</v>
       </c>
       <c r="I461" t="s">
         <v>19</v>
@@ -32435,10 +32435,10 @@
         <v>129</v>
       </c>
       <c r="M461" t="s">
+        <v>3415</v>
+      </c>
+      <c r="N461" t="s">
         <v>3416</v>
-      </c>
-      <c r="N461" t="s">
-        <v>3417</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
@@ -32446,22 +32446,22 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C462" t="s">
         <v>3418</v>
       </c>
-      <c r="C462" t="s">
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462" t="s">
         <v>3419</v>
-      </c>
-      <c r="D462">
-        <v>1</v>
-      </c>
-      <c r="E462" t="s">
-        <v>3420</v>
       </c>
       <c r="F462" t="s">
         <v>1009</v>
       </c>
       <c r="H462" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="I462" t="s">
         <v>19</v>
@@ -32473,10 +32473,10 @@
         <v>128</v>
       </c>
       <c r="M462" t="s">
+        <v>3421</v>
+      </c>
+      <c r="N462" t="s">
         <v>3422</v>
-      </c>
-      <c r="N462" t="s">
-        <v>3423</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
@@ -32484,22 +32484,22 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C463" t="s">
         <v>3424</v>
       </c>
-      <c r="C463" t="s">
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463" t="s">
         <v>3425</v>
-      </c>
-      <c r="D463">
-        <v>1</v>
-      </c>
-      <c r="E463" t="s">
-        <v>3426</v>
       </c>
       <c r="F463" t="s">
         <v>2534</v>
       </c>
       <c r="H463" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="I463" t="s">
         <v>19</v>
@@ -32511,10 +32511,10 @@
         <v>127</v>
       </c>
       <c r="M463" t="s">
+        <v>3427</v>
+      </c>
+      <c r="N463" t="s">
         <v>3428</v>
-      </c>
-      <c r="N463" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
@@ -32522,31 +32522,31 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C464" t="s">
         <v>3430</v>
       </c>
-      <c r="C464" t="s">
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464" t="s">
         <v>3431</v>
-      </c>
-      <c r="D464">
-        <v>1</v>
-      </c>
-      <c r="E464" t="s">
-        <v>3432</v>
       </c>
       <c r="F464" t="s">
         <v>2679</v>
       </c>
       <c r="H464" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="L464">
         <v>126</v>
       </c>
       <c r="M464" t="s">
+        <v>3433</v>
+      </c>
+      <c r="N464" t="s">
         <v>3434</v>
-      </c>
-      <c r="N464" t="s">
-        <v>3435</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
@@ -32554,31 +32554,31 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C465" t="s">
         <v>3436</v>
-      </c>
-      <c r="C465" t="s">
-        <v>3437</v>
       </c>
       <c r="D465">
         <v>0</v>
       </c>
       <c r="E465" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F465" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H465" t="s">
         <v>3438</v>
       </c>
-      <c r="F465" t="s">
-        <v>3399</v>
-      </c>
-      <c r="H465" t="s">
+      <c r="L465">
+        <v>1</v>
+      </c>
+      <c r="M465" t="s">
         <v>3439</v>
       </c>
-      <c r="L465">
-        <v>1</v>
-      </c>
-      <c r="M465" t="s">
+      <c r="N465" t="s">
         <v>3440</v>
-      </c>
-      <c r="N465" t="s">
-        <v>3441</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
@@ -32586,31 +32586,31 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C466" t="s">
         <v>3442</v>
       </c>
-      <c r="C466" t="s">
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466" t="s">
         <v>3443</v>
-      </c>
-      <c r="D466">
-        <v>1</v>
-      </c>
-      <c r="E466" t="s">
-        <v>3444</v>
       </c>
       <c r="F466" t="s">
         <v>315</v>
       </c>
       <c r="H466" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="L466">
         <v>125</v>
       </c>
       <c r="M466" t="s">
+        <v>3445</v>
+      </c>
+      <c r="N466" t="s">
         <v>3446</v>
-      </c>
-      <c r="N466" t="s">
-        <v>3447</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
@@ -32618,31 +32618,31 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C467" t="s">
         <v>3448</v>
       </c>
-      <c r="C467" t="s">
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467" t="s">
         <v>3449</v>
-      </c>
-      <c r="D467">
-        <v>1</v>
-      </c>
-      <c r="E467" t="s">
-        <v>3450</v>
       </c>
       <c r="F467" t="s">
         <v>668</v>
       </c>
       <c r="H467" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="L467">
         <v>124</v>
       </c>
       <c r="M467" t="s">
+        <v>3451</v>
+      </c>
+      <c r="N467" t="s">
         <v>3452</v>
-      </c>
-      <c r="N467" t="s">
-        <v>3453</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
@@ -32650,31 +32650,31 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C468" t="s">
         <v>3454</v>
       </c>
-      <c r="C468" t="s">
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468" t="s">
         <v>3455</v>
-      </c>
-      <c r="D468">
-        <v>1</v>
-      </c>
-      <c r="E468" t="s">
-        <v>3456</v>
       </c>
       <c r="F468" t="s">
         <v>1054</v>
       </c>
       <c r="H468" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="L468">
         <v>123</v>
       </c>
       <c r="M468" t="s">
+        <v>3457</v>
+      </c>
+      <c r="N468" t="s">
         <v>3458</v>
-      </c>
-      <c r="N468" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
@@ -32682,31 +32682,31 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C469" t="s">
         <v>3460</v>
       </c>
-      <c r="C469" t="s">
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469" t="s">
         <v>3461</v>
-      </c>
-      <c r="D469">
-        <v>1</v>
-      </c>
-      <c r="E469" t="s">
-        <v>3462</v>
       </c>
       <c r="F469" t="s">
         <v>85</v>
       </c>
       <c r="H469" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="L469">
         <v>122</v>
       </c>
       <c r="M469" t="s">
+        <v>3463</v>
+      </c>
+      <c r="N469" t="s">
         <v>3464</v>
-      </c>
-      <c r="N469" t="s">
-        <v>3465</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
@@ -32714,31 +32714,31 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C470" t="s">
         <v>3466</v>
       </c>
-      <c r="C470" t="s">
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470" t="s">
         <v>3467</v>
-      </c>
-      <c r="D470">
-        <v>1</v>
-      </c>
-      <c r="E470" t="s">
-        <v>3468</v>
       </c>
       <c r="F470" t="s">
         <v>486</v>
       </c>
       <c r="H470" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="L470">
         <v>121</v>
       </c>
       <c r="M470" t="s">
+        <v>3469</v>
+      </c>
+      <c r="N470" t="s">
         <v>3470</v>
-      </c>
-      <c r="N470" t="s">
-        <v>3471</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
@@ -32746,31 +32746,31 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C471" t="s">
         <v>3472</v>
-      </c>
-      <c r="C471" t="s">
-        <v>3473</v>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="F471" t="s">
         <v>2649</v>
       </c>
       <c r="H471" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="L471">
         <v>12</v>
       </c>
       <c r="M471" t="s">
+        <v>3475</v>
+      </c>
+      <c r="N471" t="s">
         <v>3476</v>
-      </c>
-      <c r="N471" t="s">
-        <v>3477</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
@@ -32778,31 +32778,31 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C472" t="s">
         <v>3478</v>
-      </c>
-      <c r="C472" t="s">
-        <v>3479</v>
       </c>
       <c r="D472">
         <v>0</v>
       </c>
       <c r="E472" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="F472" t="s">
         <v>2649</v>
       </c>
       <c r="H472" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="L472">
         <v>11</v>
       </c>
       <c r="M472" t="s">
+        <v>3481</v>
+      </c>
+      <c r="N472" t="s">
         <v>3482</v>
-      </c>
-      <c r="N472" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
@@ -32810,31 +32810,31 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C473" t="s">
         <v>3484</v>
-      </c>
-      <c r="C473" t="s">
-        <v>3485</v>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F473" t="s">
+        <v>3022</v>
+      </c>
+      <c r="H473" t="s">
         <v>3486</v>
-      </c>
-      <c r="F473" t="s">
-        <v>3023</v>
-      </c>
-      <c r="H473" t="s">
-        <v>3487</v>
       </c>
       <c r="L473">
         <v>10</v>
       </c>
       <c r="M473" t="s">
+        <v>3487</v>
+      </c>
+      <c r="N473" t="s">
         <v>3488</v>
-      </c>
-      <c r="N473" t="s">
-        <v>3489</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
@@ -32842,31 +32842,31 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C474" t="s">
         <v>3490</v>
-      </c>
-      <c r="C474" t="s">
-        <v>3491</v>
       </c>
       <c r="D474">
         <v>0</v>
       </c>
       <c r="E474" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F474" t="s">
         <v>3492</v>
       </c>
-      <c r="F474" t="s">
+      <c r="H474" t="s">
         <v>3493</v>
-      </c>
-      <c r="H474" t="s">
-        <v>3494</v>
       </c>
       <c r="L474">
         <v>9</v>
       </c>
       <c r="M474" t="s">
+        <v>3494</v>
+      </c>
+      <c r="N474" t="s">
         <v>3495</v>
-      </c>
-      <c r="N474" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
@@ -32874,31 +32874,31 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C475" t="s">
         <v>3497</v>
       </c>
-      <c r="C475" t="s">
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
         <v>3498</v>
-      </c>
-      <c r="D475">
-        <v>1</v>
-      </c>
-      <c r="E475" t="s">
-        <v>3499</v>
       </c>
       <c r="F475" t="s">
         <v>646</v>
       </c>
       <c r="H475" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="L475">
         <v>120</v>
       </c>
       <c r="M475" t="s">
+        <v>3500</v>
+      </c>
+      <c r="N475" t="s">
         <v>3501</v>
-      </c>
-      <c r="N475" t="s">
-        <v>3502</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
@@ -32906,22 +32906,22 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C476" t="s">
         <v>3503</v>
       </c>
-      <c r="C476" t="s">
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476" t="s">
         <v>3504</v>
-      </c>
-      <c r="D476">
-        <v>1</v>
-      </c>
-      <c r="E476" t="s">
-        <v>3505</v>
       </c>
       <c r="F476" t="s">
         <v>211</v>
       </c>
       <c r="H476" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="I476" t="s">
         <v>19</v>
@@ -32933,10 +32933,10 @@
         <v>119</v>
       </c>
       <c r="M476" t="s">
+        <v>3506</v>
+      </c>
+      <c r="N476" t="s">
         <v>3507</v>
-      </c>
-      <c r="N476" t="s">
-        <v>3508</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
@@ -32944,22 +32944,22 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C477" t="s">
         <v>3509</v>
       </c>
-      <c r="C477" t="s">
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477" t="s">
         <v>3510</v>
       </c>
-      <c r="D477">
-        <v>1</v>
-      </c>
-      <c r="E477" t="s">
+      <c r="F477" t="s">
         <v>3511</v>
       </c>
-      <c r="F477" t="s">
+      <c r="H477" t="s">
         <v>3512</v>
-      </c>
-      <c r="H477" t="s">
-        <v>3513</v>
       </c>
       <c r="I477" t="s">
         <v>19</v>
@@ -32971,10 +32971,10 @@
         <v>118</v>
       </c>
       <c r="M477" t="s">
+        <v>3513</v>
+      </c>
+      <c r="N477" t="s">
         <v>3514</v>
-      </c>
-      <c r="N477" t="s">
-        <v>3515</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
@@ -32982,31 +32982,31 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C478" t="s">
         <v>3516</v>
       </c>
-      <c r="C478" t="s">
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478" t="s">
         <v>3517</v>
       </c>
-      <c r="D478">
-        <v>1</v>
-      </c>
-      <c r="E478" t="s">
+      <c r="F478" t="s">
         <v>3518</v>
       </c>
-      <c r="F478" t="s">
+      <c r="H478" t="s">
         <v>3519</v>
-      </c>
-      <c r="H478" t="s">
-        <v>3520</v>
       </c>
       <c r="L478">
         <v>117</v>
       </c>
       <c r="M478" t="s">
+        <v>3520</v>
+      </c>
+      <c r="N478" t="s">
         <v>3521</v>
-      </c>
-      <c r="N478" t="s">
-        <v>3522</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
@@ -33014,31 +33014,31 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C479" t="s">
         <v>3523</v>
       </c>
-      <c r="C479" t="s">
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479" t="s">
         <v>3524</v>
-      </c>
-      <c r="D479">
-        <v>1</v>
-      </c>
-      <c r="E479" t="s">
-        <v>3525</v>
       </c>
       <c r="F479" t="s">
         <v>668</v>
       </c>
       <c r="H479" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="L479">
         <v>116</v>
       </c>
       <c r="M479" t="s">
+        <v>3526</v>
+      </c>
+      <c r="N479" t="s">
         <v>3527</v>
-      </c>
-      <c r="N479" t="s">
-        <v>3528</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
@@ -33046,31 +33046,31 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C480" t="s">
         <v>3529</v>
       </c>
-      <c r="C480" t="s">
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480" t="s">
         <v>3530</v>
       </c>
-      <c r="D480">
-        <v>1</v>
-      </c>
-      <c r="E480" t="s">
+      <c r="F480" t="s">
         <v>3531</v>
       </c>
-      <c r="F480" t="s">
+      <c r="H480" t="s">
         <v>3532</v>
-      </c>
-      <c r="H480" t="s">
-        <v>3533</v>
       </c>
       <c r="L480">
         <v>115</v>
       </c>
       <c r="M480" t="s">
+        <v>3533</v>
+      </c>
+      <c r="N480" t="s">
         <v>3534</v>
-      </c>
-      <c r="N480" t="s">
-        <v>3535</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
@@ -33078,31 +33078,31 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C481" t="s">
         <v>3536</v>
       </c>
-      <c r="C481" t="s">
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481" t="s">
         <v>3537</v>
-      </c>
-      <c r="D481">
-        <v>1</v>
-      </c>
-      <c r="E481" t="s">
-        <v>3538</v>
       </c>
       <c r="F481" t="s">
         <v>211</v>
       </c>
       <c r="H481" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="L481">
         <v>114</v>
       </c>
       <c r="M481" t="s">
+        <v>3539</v>
+      </c>
+      <c r="N481" t="s">
         <v>3540</v>
-      </c>
-      <c r="N481" t="s">
-        <v>3541</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
@@ -33110,31 +33110,31 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C482" t="s">
         <v>3542</v>
-      </c>
-      <c r="C482" t="s">
-        <v>3543</v>
       </c>
       <c r="D482">
         <v>0</v>
       </c>
       <c r="E482" t="s">
+        <v>3543</v>
+      </c>
+      <c r="F482" t="s">
+        <v>3492</v>
+      </c>
+      <c r="H482" t="s">
         <v>3544</v>
-      </c>
-      <c r="F482" t="s">
-        <v>3493</v>
-      </c>
-      <c r="H482" t="s">
-        <v>3545</v>
       </c>
       <c r="L482">
         <v>8</v>
       </c>
       <c r="M482" t="s">
+        <v>3545</v>
+      </c>
+      <c r="N482" t="s">
         <v>3546</v>
-      </c>
-      <c r="N482" t="s">
-        <v>3547</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
@@ -33142,31 +33142,31 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C483" t="s">
         <v>3548</v>
       </c>
-      <c r="C483" t="s">
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483" t="s">
         <v>3549</v>
-      </c>
-      <c r="D483">
-        <v>1</v>
-      </c>
-      <c r="E483" t="s">
-        <v>3550</v>
       </c>
       <c r="F483" t="s">
         <v>2164</v>
       </c>
       <c r="H483" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="L483">
         <v>113</v>
       </c>
       <c r="M483" t="s">
+        <v>3551</v>
+      </c>
+      <c r="N483" t="s">
         <v>3552</v>
-      </c>
-      <c r="N483" t="s">
-        <v>3553</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
@@ -33174,31 +33174,31 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C484" t="s">
         <v>3554</v>
       </c>
-      <c r="C484" t="s">
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484" t="s">
         <v>3555</v>
-      </c>
-      <c r="D484">
-        <v>1</v>
-      </c>
-      <c r="E484" t="s">
-        <v>3556</v>
       </c>
       <c r="F484" t="s">
         <v>462</v>
       </c>
       <c r="H484" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="L484">
         <v>112</v>
       </c>
       <c r="M484" t="s">
+        <v>3557</v>
+      </c>
+      <c r="N484" t="s">
         <v>3558</v>
-      </c>
-      <c r="N484" t="s">
-        <v>3559</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
@@ -33206,31 +33206,31 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C485" t="s">
         <v>3560</v>
       </c>
-      <c r="C485" t="s">
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485" t="s">
         <v>3561</v>
-      </c>
-      <c r="D485">
-        <v>1</v>
-      </c>
-      <c r="E485" t="s">
-        <v>3562</v>
       </c>
       <c r="F485" t="s">
         <v>1416</v>
       </c>
       <c r="H485" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="L485">
         <v>111</v>
       </c>
       <c r="M485" t="s">
+        <v>3563</v>
+      </c>
+      <c r="N485" t="s">
         <v>3564</v>
-      </c>
-      <c r="N485" t="s">
-        <v>3565</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
@@ -33238,31 +33238,31 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C486" t="s">
         <v>3566</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486" t="s">
         <v>3567</v>
-      </c>
-      <c r="D486">
-        <v>1</v>
-      </c>
-      <c r="E486" t="s">
-        <v>3568</v>
       </c>
       <c r="F486" t="s">
         <v>259</v>
       </c>
       <c r="H486" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="L486">
         <v>110</v>
       </c>
       <c r="M486" t="s">
+        <v>3569</v>
+      </c>
+      <c r="N486" t="s">
         <v>3570</v>
-      </c>
-      <c r="N486" t="s">
-        <v>3571</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
@@ -33270,31 +33270,31 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C487" t="s">
         <v>3572</v>
       </c>
-      <c r="C487" t="s">
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487" t="s">
         <v>3573</v>
-      </c>
-      <c r="D487">
-        <v>1</v>
-      </c>
-      <c r="E487" t="s">
-        <v>3574</v>
       </c>
       <c r="F487" t="s">
         <v>85</v>
       </c>
       <c r="H487" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="L487">
         <v>109</v>
       </c>
       <c r="M487" t="s">
+        <v>3575</v>
+      </c>
+      <c r="N487" t="s">
         <v>3576</v>
-      </c>
-      <c r="N487" t="s">
-        <v>3577</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
@@ -33302,31 +33302,31 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C488" t="s">
         <v>3578</v>
       </c>
-      <c r="C488" t="s">
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488" t="s">
         <v>3579</v>
-      </c>
-      <c r="D488">
-        <v>1</v>
-      </c>
-      <c r="E488" t="s">
-        <v>3580</v>
       </c>
       <c r="F488" t="s">
         <v>1446</v>
       </c>
       <c r="H488" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="L488">
         <v>108</v>
       </c>
       <c r="M488" t="s">
+        <v>3581</v>
+      </c>
+      <c r="N488" t="s">
         <v>3582</v>
-      </c>
-      <c r="N488" t="s">
-        <v>3583</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
@@ -33334,31 +33334,31 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C489" t="s">
         <v>3584</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489" t="s">
         <v>3585</v>
-      </c>
-      <c r="D489">
-        <v>1</v>
-      </c>
-      <c r="E489" t="s">
-        <v>3586</v>
       </c>
       <c r="F489" t="s">
         <v>486</v>
       </c>
       <c r="H489" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="L489">
         <v>107</v>
       </c>
       <c r="M489" t="s">
+        <v>3587</v>
+      </c>
+      <c r="N489" t="s">
         <v>3588</v>
-      </c>
-      <c r="N489" t="s">
-        <v>3589</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
@@ -33366,31 +33366,31 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C490" t="s">
         <v>3590</v>
       </c>
-      <c r="C490" t="s">
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490" t="s">
         <v>3591</v>
-      </c>
-      <c r="D490">
-        <v>1</v>
-      </c>
-      <c r="E490" t="s">
-        <v>3592</v>
       </c>
       <c r="F490" t="s">
         <v>1009</v>
       </c>
       <c r="H490" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="L490">
         <v>106</v>
       </c>
       <c r="M490" t="s">
+        <v>3593</v>
+      </c>
+      <c r="N490" t="s">
         <v>3594</v>
-      </c>
-      <c r="N490" t="s">
-        <v>3595</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
@@ -33398,22 +33398,22 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C491" t="s">
         <v>3596</v>
       </c>
-      <c r="C491" t="s">
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491" t="s">
         <v>3597</v>
-      </c>
-      <c r="D491">
-        <v>1</v>
-      </c>
-      <c r="E491" t="s">
-        <v>3598</v>
       </c>
       <c r="F491" t="s">
         <v>315</v>
       </c>
       <c r="H491" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="I491" t="s">
         <v>19</v>
@@ -33425,10 +33425,10 @@
         <v>105</v>
       </c>
       <c r="M491" t="s">
+        <v>3599</v>
+      </c>
+      <c r="N491" t="s">
         <v>3600</v>
-      </c>
-      <c r="N491" t="s">
-        <v>3601</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
@@ -33436,31 +33436,31 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C492" t="s">
         <v>3602</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492" t="s">
         <v>3603</v>
-      </c>
-      <c r="D492">
-        <v>1</v>
-      </c>
-      <c r="E492" t="s">
-        <v>3604</v>
       </c>
       <c r="F492" t="s">
         <v>646</v>
       </c>
       <c r="H492" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="L492">
         <v>104</v>
       </c>
       <c r="M492" t="s">
+        <v>3605</v>
+      </c>
+      <c r="N492" t="s">
         <v>3606</v>
-      </c>
-      <c r="N492" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
@@ -33468,31 +33468,31 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C493" t="s">
         <v>3608</v>
       </c>
-      <c r="C493" t="s">
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493" t="s">
         <v>3609</v>
       </c>
-      <c r="D493">
-        <v>1</v>
-      </c>
-      <c r="E493" t="s">
+      <c r="F493" t="s">
         <v>3610</v>
       </c>
-      <c r="F493" t="s">
+      <c r="H493" t="s">
         <v>3611</v>
-      </c>
-      <c r="H493" t="s">
-        <v>3612</v>
       </c>
       <c r="L493">
         <v>103</v>
       </c>
       <c r="M493" t="s">
+        <v>3612</v>
+      </c>
+      <c r="N493" t="s">
         <v>3613</v>
-      </c>
-      <c r="N493" t="s">
-        <v>3614</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
@@ -33500,31 +33500,31 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C494" t="s">
         <v>3615</v>
       </c>
-      <c r="C494" t="s">
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494" t="s">
         <v>3616</v>
-      </c>
-      <c r="D494">
-        <v>1</v>
-      </c>
-      <c r="E494" t="s">
-        <v>3617</v>
       </c>
       <c r="F494" t="s">
         <v>1251</v>
       </c>
       <c r="H494" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="L494">
         <v>102</v>
       </c>
       <c r="M494" t="s">
+        <v>3618</v>
+      </c>
+      <c r="N494" t="s">
         <v>3619</v>
-      </c>
-      <c r="N494" t="s">
-        <v>3620</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
@@ -33532,31 +33532,31 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C495" t="s">
         <v>3621</v>
       </c>
-      <c r="C495" t="s">
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495" t="s">
         <v>3622</v>
-      </c>
-      <c r="D495">
-        <v>1</v>
-      </c>
-      <c r="E495" t="s">
-        <v>3623</v>
       </c>
       <c r="F495" t="s">
         <v>85</v>
       </c>
       <c r="H495" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="L495">
         <v>101</v>
       </c>
       <c r="M495" t="s">
+        <v>3624</v>
+      </c>
+      <c r="N495" t="s">
         <v>3625</v>
-      </c>
-      <c r="N495" t="s">
-        <v>3626</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
@@ -33564,22 +33564,22 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C496" t="s">
         <v>3627</v>
       </c>
-      <c r="C496" t="s">
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496" t="s">
         <v>3628</v>
       </c>
-      <c r="D496">
-        <v>1</v>
-      </c>
-      <c r="E496" t="s">
+      <c r="F496" t="s">
         <v>3629</v>
       </c>
-      <c r="F496" t="s">
+      <c r="H496" t="s">
         <v>3630</v>
-      </c>
-      <c r="H496" t="s">
-        <v>3631</v>
       </c>
       <c r="I496" t="s">
         <v>19</v>
@@ -33591,10 +33591,10 @@
         <v>100</v>
       </c>
       <c r="M496" t="s">
+        <v>3631</v>
+      </c>
+      <c r="N496" t="s">
         <v>3632</v>
-      </c>
-      <c r="N496" t="s">
-        <v>3633</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
@@ -33602,22 +33602,22 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C497" t="s">
         <v>3634</v>
       </c>
-      <c r="C497" t="s">
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
         <v>3635</v>
       </c>
-      <c r="D497">
-        <v>1</v>
-      </c>
-      <c r="E497" t="s">
+      <c r="F497" t="s">
         <v>3636</v>
       </c>
-      <c r="F497" t="s">
+      <c r="H497" t="s">
         <v>3637</v>
-      </c>
-      <c r="H497" t="s">
-        <v>3638</v>
       </c>
       <c r="I497" t="s">
         <v>19</v>
@@ -33629,10 +33629,10 @@
         <v>99</v>
       </c>
       <c r="M497" t="s">
+        <v>3638</v>
+      </c>
+      <c r="N497" t="s">
         <v>3639</v>
-      </c>
-      <c r="N497" t="s">
-        <v>3640</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
@@ -33640,22 +33640,22 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C498" t="s">
         <v>3641</v>
       </c>
-      <c r="C498" t="s">
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
         <v>3642</v>
-      </c>
-      <c r="D498">
-        <v>1</v>
-      </c>
-      <c r="E498" t="s">
-        <v>3643</v>
       </c>
       <c r="F498" t="s">
         <v>85</v>
       </c>
       <c r="H498" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="I498" t="s">
         <v>19</v>
@@ -33667,10 +33667,10 @@
         <v>98</v>
       </c>
       <c r="M498" t="s">
+        <v>3644</v>
+      </c>
+      <c r="N498" t="s">
         <v>3645</v>
-      </c>
-      <c r="N498" t="s">
-        <v>3646</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
@@ -33678,22 +33678,22 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C499" t="s">
         <v>3647</v>
       </c>
-      <c r="C499" t="s">
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
         <v>3648</v>
-      </c>
-      <c r="D499">
-        <v>1</v>
-      </c>
-      <c r="E499" t="s">
-        <v>3649</v>
       </c>
       <c r="F499" t="s">
         <v>1416</v>
       </c>
       <c r="H499" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="I499" t="s">
         <v>19</v>
@@ -33705,10 +33705,10 @@
         <v>97</v>
       </c>
       <c r="M499" t="s">
+        <v>3650</v>
+      </c>
+      <c r="N499" t="s">
         <v>3651</v>
-      </c>
-      <c r="N499" t="s">
-        <v>3652</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
@@ -33716,22 +33716,22 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C500" t="s">
         <v>3653</v>
-      </c>
-      <c r="C500" t="s">
-        <v>3654</v>
       </c>
       <c r="D500">
         <v>0</v>
       </c>
       <c r="E500" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="F500" t="s">
         <v>1987</v>
       </c>
       <c r="H500" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="I500" t="s">
         <v>19</v>
@@ -33743,10 +33743,10 @@
         <v>7</v>
       </c>
       <c r="M500" t="s">
+        <v>3656</v>
+      </c>
+      <c r="N500" t="s">
         <v>3657</v>
-      </c>
-      <c r="N500" t="s">
-        <v>3658</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
@@ -33754,22 +33754,22 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C501" t="s">
         <v>3659</v>
-      </c>
-      <c r="C501" t="s">
-        <v>3660</v>
       </c>
       <c r="D501">
         <v>0</v>
       </c>
       <c r="E501" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F501" t="s">
+        <v>3268</v>
+      </c>
+      <c r="H501" t="s">
         <v>3661</v>
-      </c>
-      <c r="F501" t="s">
-        <v>3269</v>
-      </c>
-      <c r="H501" t="s">
-        <v>3662</v>
       </c>
       <c r="I501" t="s">
         <v>19</v>
@@ -33781,10 +33781,10 @@
         <v>6</v>
       </c>
       <c r="M501" t="s">
+        <v>3662</v>
+      </c>
+      <c r="N501" t="s">
         <v>3663</v>
-      </c>
-      <c r="N501" t="s">
-        <v>3664</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
@@ -33792,22 +33792,22 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C502" t="s">
         <v>3665</v>
       </c>
-      <c r="C502" t="s">
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502" t="s">
         <v>3666</v>
-      </c>
-      <c r="D502">
-        <v>1</v>
-      </c>
-      <c r="E502" t="s">
-        <v>3667</v>
       </c>
       <c r="F502" t="s">
         <v>486</v>
       </c>
       <c r="H502" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="I502" t="s">
         <v>19</v>
@@ -33819,10 +33819,10 @@
         <v>96</v>
       </c>
       <c r="M502" t="s">
+        <v>3668</v>
+      </c>
+      <c r="N502" t="s">
         <v>3669</v>
-      </c>
-      <c r="N502" t="s">
-        <v>3670</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
@@ -33830,22 +33830,22 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
+        <v>3670</v>
+      </c>
+      <c r="C503" t="s">
         <v>3671</v>
       </c>
-      <c r="C503" t="s">
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503" t="s">
         <v>3672</v>
-      </c>
-      <c r="D503">
-        <v>1</v>
-      </c>
-      <c r="E503" t="s">
-        <v>3673</v>
       </c>
       <c r="F503" t="s">
         <v>1009</v>
       </c>
       <c r="H503" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="I503" t="s">
         <v>19</v>
@@ -33857,10 +33857,10 @@
         <v>95</v>
       </c>
       <c r="M503" t="s">
+        <v>3674</v>
+      </c>
+      <c r="N503" t="s">
         <v>3675</v>
-      </c>
-      <c r="N503" t="s">
-        <v>3676</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
@@ -33868,22 +33868,22 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C504" t="s">
         <v>3677</v>
       </c>
-      <c r="C504" t="s">
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504" t="s">
         <v>3678</v>
-      </c>
-      <c r="D504">
-        <v>1</v>
-      </c>
-      <c r="E504" t="s">
-        <v>3679</v>
       </c>
       <c r="F504" t="s">
         <v>259</v>
       </c>
       <c r="H504" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="I504" t="s">
         <v>19</v>
@@ -33895,10 +33895,10 @@
         <v>94</v>
       </c>
       <c r="M504" t="s">
+        <v>3680</v>
+      </c>
+      <c r="N504" t="s">
         <v>3681</v>
-      </c>
-      <c r="N504" t="s">
-        <v>3682</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
@@ -33906,22 +33906,22 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C505" t="s">
         <v>3683</v>
-      </c>
-      <c r="C505" t="s">
-        <v>3684</v>
       </c>
       <c r="D505">
         <v>0</v>
       </c>
       <c r="E505" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F505" t="s">
+        <v>3022</v>
+      </c>
+      <c r="H505" t="s">
         <v>3685</v>
-      </c>
-      <c r="F505" t="s">
-        <v>3023</v>
-      </c>
-      <c r="H505" t="s">
-        <v>3686</v>
       </c>
       <c r="I505" t="s">
         <v>19</v>
@@ -33933,10 +33933,10 @@
         <v>5</v>
       </c>
       <c r="M505" t="s">
+        <v>3686</v>
+      </c>
+      <c r="N505" t="s">
         <v>3687</v>
-      </c>
-      <c r="N505" t="s">
-        <v>3688</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
@@ -33944,22 +33944,22 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C506" t="s">
         <v>3689</v>
       </c>
-      <c r="C506" t="s">
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506" t="s">
         <v>3690</v>
       </c>
-      <c r="D506">
-        <v>1</v>
-      </c>
-      <c r="E506" t="s">
+      <c r="F506" t="s">
+        <v>3492</v>
+      </c>
+      <c r="H506" t="s">
         <v>3691</v>
-      </c>
-      <c r="F506" t="s">
-        <v>3493</v>
-      </c>
-      <c r="H506" t="s">
-        <v>3692</v>
       </c>
       <c r="I506" t="s">
         <v>19</v>
@@ -33971,10 +33971,10 @@
         <v>93</v>
       </c>
       <c r="M506" t="s">
+        <v>3692</v>
+      </c>
+      <c r="N506" t="s">
         <v>3693</v>
-      </c>
-      <c r="N506" t="s">
-        <v>3694</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
@@ -33982,22 +33982,22 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C507" t="s">
         <v>3695</v>
       </c>
-      <c r="C507" t="s">
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507" t="s">
         <v>3696</v>
       </c>
-      <c r="D507">
-        <v>1</v>
-      </c>
-      <c r="E507" t="s">
+      <c r="F507" t="s">
+        <v>3531</v>
+      </c>
+      <c r="H507" t="s">
         <v>3697</v>
-      </c>
-      <c r="F507" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H507" t="s">
-        <v>3698</v>
       </c>
       <c r="I507" t="s">
         <v>19</v>
@@ -34009,10 +34009,10 @@
         <v>92</v>
       </c>
       <c r="M507" t="s">
+        <v>3698</v>
+      </c>
+      <c r="N507" t="s">
         <v>3699</v>
-      </c>
-      <c r="N507" t="s">
-        <v>3700</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
@@ -34020,22 +34020,22 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C508" t="s">
         <v>3701</v>
       </c>
-      <c r="C508" t="s">
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508" t="s">
         <v>3702</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
-      </c>
-      <c r="E508" t="s">
-        <v>3703</v>
       </c>
       <c r="F508" t="s">
         <v>85</v>
       </c>
       <c r="H508" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="I508" t="s">
         <v>19</v>
@@ -34047,10 +34047,10 @@
         <v>91</v>
       </c>
       <c r="M508" t="s">
+        <v>3704</v>
+      </c>
+      <c r="N508" t="s">
         <v>3705</v>
-      </c>
-      <c r="N508" t="s">
-        <v>3706</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
@@ -34058,22 +34058,22 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C509" t="s">
         <v>3707</v>
       </c>
-      <c r="C509" t="s">
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509" t="s">
         <v>3708</v>
-      </c>
-      <c r="D509">
-        <v>1</v>
-      </c>
-      <c r="E509" t="s">
-        <v>3709</v>
       </c>
       <c r="F509" t="s">
         <v>85</v>
       </c>
       <c r="H509" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="I509" t="s">
         <v>19</v>
@@ -34085,10 +34085,10 @@
         <v>90</v>
       </c>
       <c r="M509" t="s">
+        <v>3710</v>
+      </c>
+      <c r="N509" t="s">
         <v>3711</v>
-      </c>
-      <c r="N509" t="s">
-        <v>3712</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
@@ -34096,22 +34096,22 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C510" t="s">
         <v>3713</v>
       </c>
-      <c r="C510" t="s">
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510" t="s">
         <v>3714</v>
       </c>
-      <c r="D510">
-        <v>1</v>
-      </c>
-      <c r="E510" t="s">
+      <c r="F510" t="s">
         <v>3715</v>
       </c>
-      <c r="F510" t="s">
+      <c r="H510" t="s">
         <v>3716</v>
-      </c>
-      <c r="H510" t="s">
-        <v>3717</v>
       </c>
       <c r="I510" t="s">
         <v>19</v>
@@ -34123,10 +34123,10 @@
         <v>89</v>
       </c>
       <c r="M510" t="s">
+        <v>3717</v>
+      </c>
+      <c r="N510" t="s">
         <v>3718</v>
-      </c>
-      <c r="N510" t="s">
-        <v>3719</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
@@ -34134,22 +34134,22 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C511" t="s">
         <v>3720</v>
       </c>
-      <c r="C511" t="s">
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511" t="s">
         <v>3721</v>
-      </c>
-      <c r="D511">
-        <v>1</v>
-      </c>
-      <c r="E511" t="s">
-        <v>3722</v>
       </c>
       <c r="F511" t="s">
         <v>1251</v>
       </c>
       <c r="H511" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="I511" t="s">
         <v>19</v>
@@ -34161,10 +34161,10 @@
         <v>88</v>
       </c>
       <c r="M511" t="s">
+        <v>3723</v>
+      </c>
+      <c r="N511" t="s">
         <v>3724</v>
-      </c>
-      <c r="N511" t="s">
-        <v>3725</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
@@ -34172,22 +34172,22 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C512" t="s">
         <v>3726</v>
       </c>
-      <c r="C512" t="s">
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512" t="s">
         <v>3727</v>
-      </c>
-      <c r="D512">
-        <v>1</v>
-      </c>
-      <c r="E512" t="s">
-        <v>3728</v>
       </c>
       <c r="F512" t="s">
         <v>2657</v>
       </c>
       <c r="H512" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="I512" t="s">
         <v>20</v>
@@ -34199,10 +34199,10 @@
         <v>87</v>
       </c>
       <c r="M512" t="s">
+        <v>3729</v>
+      </c>
+      <c r="N512" t="s">
         <v>3730</v>
-      </c>
-      <c r="N512" t="s">
-        <v>3731</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.2">
@@ -34210,22 +34210,22 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C513" t="s">
         <v>3732</v>
       </c>
-      <c r="C513" t="s">
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513" t="s">
         <v>3733</v>
       </c>
-      <c r="D513">
-        <v>1</v>
-      </c>
-      <c r="E513" t="s">
+      <c r="F513" t="s">
+        <v>3636</v>
+      </c>
+      <c r="H513" t="s">
         <v>3734</v>
-      </c>
-      <c r="F513" t="s">
-        <v>3637</v>
-      </c>
-      <c r="H513" t="s">
-        <v>3735</v>
       </c>
       <c r="I513" t="s">
         <v>19</v>
@@ -34237,10 +34237,10 @@
         <v>86</v>
       </c>
       <c r="M513" t="s">
+        <v>3735</v>
+      </c>
+      <c r="N513" t="s">
         <v>3736</v>
-      </c>
-      <c r="N513" t="s">
-        <v>3737</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.2">
@@ -34248,22 +34248,22 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C514" t="s">
         <v>3738</v>
       </c>
-      <c r="C514" t="s">
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514" t="s">
         <v>3739</v>
-      </c>
-      <c r="D514">
-        <v>1</v>
-      </c>
-      <c r="E514" t="s">
-        <v>3740</v>
       </c>
       <c r="F514" t="s">
         <v>85</v>
       </c>
       <c r="H514" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="I514" t="s">
         <v>19</v>
@@ -34275,10 +34275,10 @@
         <v>85</v>
       </c>
       <c r="M514" t="s">
+        <v>3741</v>
+      </c>
+      <c r="N514" t="s">
         <v>3742</v>
-      </c>
-      <c r="N514" t="s">
-        <v>3743</v>
       </c>
     </row>
   </sheetData>
